--- a/data/hotels_by_city/Houston/Houston_shard_153.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_153.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d1165138-Reviews-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-Pearland.h2086358.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1358 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r598306538-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1165138</t>
+  </si>
+  <si>
+    <t>598306538</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>My family stayed at the hotel and the first impression was good at first. However, the hotel had bed bugs or some kind of insects that bite me, my wife and our baby. Our adjacent rooms were also effected and there were signs of chemical spread cans in the hallway. The manager claimed ignorant of the situation and pretended no issues related to insects had impacted the hotel in the past. It was a terrible experience and the hotel could have handled better.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My family stayed at the hotel and the first impression was good at first. However, the hotel had bed bugs or some kind of insects that bite me, my wife and our baby. Our adjacent rooms were also effected and there were signs of chemical spread cans in the hallway. The manager claimed ignorant of the situation and pretended no issues related to insects had impacted the hotel in the past. It was a terrible experience and the hotel could have handled better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r586978307-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>586978307</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Great location - park first before checking in.</t>
+  </si>
+  <si>
+    <t>Hotel was perfectly nice, staff was very helpful with recommendation for dinner, quick check-in and check-out.  Comfy and clean.  Since the lobby is on the second floor, it is of no use to go check in first - park and take your bags with you.  Bottom floor is part of an indoor/outdoor mall.  Really convenient to walk even on a hot day.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Hotel was perfectly nice, staff was very helpful with recommendation for dinner, quick check-in and check-out.  Comfy and clean.  Since the lobby is on the second floor, it is of no use to go check in first - park and take your bags with you.  Bottom floor is part of an indoor/outdoor mall.  Really convenient to walk even on a hot day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r582927123-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>582927123</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Stay Met With Expectations</t>
+  </si>
+  <si>
+    <t>Was grateful that they allowed us to check in early as there was a room available. Room was modern with a comfortable bed and ample pillows and even had a sofa that could convert out to a bed. Housekeeping was well performed and cleanliness was excellent. Only complaint was the air conditioning which was hard to figure out. One degree down and it became too cold and one up it was too warm. Nonetheless, it was bearable. Gym had limited equipment comprising of cardio machines and one bench together with dumbbells up to 45 lbs. Laundry room comprised of one set of a washer and dryer and was very reasonably priced at $1 per cycle per machine. The detergent and dryer sheet were also available free from the Front Desk. Overall a great experience and would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Was grateful that they allowed us to check in early as there was a room available. Room was modern with a comfortable bed and ample pillows and even had a sofa that could convert out to a bed. Housekeeping was well performed and cleanliness was excellent. Only complaint was the air conditioning which was hard to figure out. One degree down and it became too cold and one up it was too warm. Nonetheless, it was bearable. Gym had limited equipment comprising of cardio machines and one bench together with dumbbells up to 45 lbs. Laundry room comprised of one set of a washer and dryer and was very reasonably priced at $1 per cycle per machine. The detergent and dryer sheet were also available free from the Front Desk. Overall a great experience and would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r563258182-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>563258182</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Chivon - great hotel</t>
+  </si>
+  <si>
+    <t>I’ve been coming to this hotel for over 5 years and appreciate the recent makeover and the consistency of great service.  Truly home away from home for the business traveler.  The new Bistro is a convenience I wouldn’t want to do without.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>I’ve been coming to this hotel for over 5 years and appreciate the recent makeover and the consistency of great service.  Truly home away from home for the business traveler.  The new Bistro is a convenience I wouldn’t want to do without.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r560562016-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>560562016</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Great Stay and Staff</t>
+  </si>
+  <si>
+    <t>I frequently stay here when I’m in town on business. The staff is always incredibly helpful.  JP and Jordan at the front desk provide excellent customer service when needed.  Jasmine at the night Bistro presents a pleasant atmosphere, matching that of Iveht’s in the morning.  The cleaning service is outstanding with the rooms very well kept giving the feeling that I was the first and only person to occupy them each stay.  The level of excellence at this establishment is a direct reflection of the magnificent management lead by Gary and Siobhan. I would definitely recommend this Hotel to anyone looking for a brief or extended stay in the Pearland area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>I frequently stay here when I’m in town on business. The staff is always incredibly helpful.  JP and Jordan at the front desk provide excellent customer service when needed.  Jasmine at the night Bistro presents a pleasant atmosphere, matching that of Iveht’s in the morning.  The cleaning service is outstanding with the rooms very well kept giving the feeling that I was the first and only person to occupy them each stay.  The level of excellence at this establishment is a direct reflection of the magnificent management lead by Gary and Siobhan. I would definitely recommend this Hotel to anyone looking for a brief or extended stay in the Pearland area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r549801631-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>549801631</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Vacation &amp; Shopping !!!</t>
+  </si>
+  <si>
+    <t>We stay for holiday and visit the family. And  we have an excellent experience, the breakfast is good they serve a nice portion is not buffet like other places. They have to work more on the pillow, for me are not confiable. My wife are super happy because in the first floor it’s the shopping mall. Shops &amp; dining experience, overall we have a nice week hear. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>We stay for holiday and visit the family. And  we have an excellent experience, the breakfast is good they serve a nice portion is not buffet like other places. They have to work more on the pillow, for me are not confiable. My wife are super happy because in the first floor it’s the shopping mall. Shops &amp; dining experience, overall we have a nice week hear. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r540213743-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>540213743</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Great Location, Well-maintained, Friendly staff</t>
+  </si>
+  <si>
+    <t>We regularly travel to Houston on business and have struggled to find a hotel that is in a nice area close to where we need to stay. This one was perfect. We plan to stay there each time we need to be in that vicinity of Houston. In addition to being such a nicely maintained and staffed hotel, the location was great. There are a variety of restaurant and shopping options and everyone we met was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>We regularly travel to Houston on business and have struggled to find a hotel that is in a nice area close to where we need to stay. This one was perfect. We plan to stay there each time we need to be in that vicinity of Houston. In addition to being such a nicely maintained and staffed hotel, the location was great. There are a variety of restaurant and shopping options and everyone we met was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r532449445-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>532449445</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>More of a 3.5*</t>
+  </si>
+  <si>
+    <t>I would say that this hotel is in a "different type of location" because Waze told me "you have arrived" when I was driving along the edge of a large shopping center.  I had to drive around a little and found the hotel behind the shopping center.  There are a lot of outdoor shops, Macy's, Sport Bar, numerous other shops which is convenient, but it seemed odd to me that the hotel was in it.  Not sure if the elevator setup is normal for this area or if there is a crime issue, but I needed to insert my key inside the elevator to get it to go up to my room.   The people are nice, hotel nicely decorated but the room setup is a little odd in that the TV is on the edge of the desk so you can see it if sitting on the mini couch, but can't see it if lying in the bed.  My other concern was that I was away all day and returned to my room at 3:30 and saw that it hadn't been cleaned yet.  Seems like a very long time to me, but the maid came by at 4:00 and I told her it wasn't needed at this time of the day as I just wanted to relax.  They may have been short handed, or maybe this is the norm, I'm not sure.  No biggie.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>I would say that this hotel is in a "different type of location" because Waze told me "you have arrived" when I was driving along the edge of a large shopping center.  I had to drive around a little and found the hotel behind the shopping center.  There are a lot of outdoor shops, Macy's, Sport Bar, numerous other shops which is convenient, but it seemed odd to me that the hotel was in it.  Not sure if the elevator setup is normal for this area or if there is a crime issue, but I needed to insert my key inside the elevator to get it to go up to my room.   The people are nice, hotel nicely decorated but the room setup is a little odd in that the TV is on the edge of the desk so you can see it if sitting on the mini couch, but can't see it if lying in the bed.  My other concern was that I was away all day and returned to my room at 3:30 and saw that it hadn't been cleaned yet.  Seems like a very long time to me, but the maid came by at 4:00 and I told her it wasn't needed at this time of the day as I just wanted to relax.  They may have been short handed, or maybe this is the norm, I'm not sure.  No biggie.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r491386580-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>491386580</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Nice hotel at a good location. Enjoyed being able to walk to nearby shops. Hotel property and rooms were very clean and meet Marriott standards. Staff was friendly and customer service was very good. The front desk staff was very efficient and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel at a good location. Enjoyed being able to walk to nearby shops. Hotel property and rooms were very clean and meet Marriott standards. Staff was friendly and customer service was very good. The front desk staff was very efficient and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r474058399-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>474058399</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad parking lot and rude staff </t>
+  </si>
+  <si>
+    <t>As I drove up, I notice the parking was packed. As I looked beyond I was going to have to park a good length which being female and at night Yikes!!! It's attached to part of the mall area they have called the Pearland Town Center. The lobby is on the second floor so if anything happens good luck to getting help soon. The walls are paper thin I could hear the noise all night. So I had a sleepless night.  When I checked in the front desk clerk was rude!! I asked how her night was going to made a face. Done with this hotel never again. I don't feel safe. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>As I drove up, I notice the parking was packed. As I looked beyond I was going to have to park a good length which being female and at night Yikes!!! It's attached to part of the mall area they have called the Pearland Town Center. The lobby is on the second floor so if anything happens good luck to getting help soon. The walls are paper thin I could hear the noise all night. So I had a sleepless night.  When I checked in the front desk clerk was rude!! I asked how her night was going to made a face. Done with this hotel never again. I don't feel safe. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r458153043-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>458153043</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Great Stay ...</t>
+  </si>
+  <si>
+    <t>Hotels seem to run together if you travel a lot, but this stood out.  A simple room expectation, but it was clean, new furniture, plenty of TV options, great WiFi signal, and comfortable bed.  I was quite happy.The location was great as well since it is on the backside of an outdoor shopping mall area with plenty of stores and food options to fill any needs.  If you can't find it there, there were even more options within a mile or so.Very friendly staff as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Hotels seem to run together if you travel a lot, but this stood out.  A simple room expectation, but it was clean, new furniture, plenty of TV options, great WiFi signal, and comfortable bed.  I was quite happy.The location was great as well since it is on the backside of an outdoor shopping mall area with plenty of stores and food options to fill any needs.  If you can't find it there, there were even more options within a mile or so.Very friendly staff as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r455676786-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>455676786</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Very Pleasant</t>
+  </si>
+  <si>
+    <t>The rooms are a little small, but they are nicely decorated and clean and very quiet. The hotel itself is in a shopping/residential center, so it is very close to restaurants and safe walking areas. The entire area is pretty commercial, so there are lots of amenities.I've seen other comments about noisy guests, but I was here mid-week and heard virtually nothing. .MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are a little small, but they are nicely decorated and clean and very quiet. The hotel itself is in a shopping/residential center, so it is very close to restaurants and safe walking areas. The entire area is pretty commercial, so there are lots of amenities.I've seen other comments about noisy guests, but I was here mid-week and heard virtually nothing. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r430425767-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>430425767</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Don't get lured to the shopping mall</t>
+  </si>
+  <si>
+    <t>The hotel does not have a front lobby at ground level! You enter into an elevator which takes you to the lobby on another floor which almost seems like an after thought. The room was decent but the rest of the stay was a nightmare as I wake for an early morning departure and my vehicle and multiple other vehicles had the driver and or passenger windows knocked out and items stolen and interior of vehicles ransacked. Please do yourself a favor and find a safer place to stay because after further discussion with local law enforcement this happened around 11:00 p.m. At night and is attached to a multilevel apartment complex which has high security fencing that looks very shady!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Tristan D, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded October 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2016</t>
+  </si>
+  <si>
+    <t>The hotel does not have a front lobby at ground level! You enter into an elevator which takes you to the lobby on another floor which almost seems like an after thought. The room was decent but the rest of the stay was a nightmare as I wake for an early morning departure and my vehicle and multiple other vehicles had the driver and or passenger windows knocked out and items stolen and interior of vehicles ransacked. Please do yourself a favor and find a safer place to stay because after further discussion with local law enforcement this happened around 11:00 p.m. At night and is attached to a multilevel apartment complex which has high security fencing that looks very shady!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r417698964-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>417698964</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>"IT'S OFFICIAL "</t>
+  </si>
+  <si>
+    <t>This newly decorated and beautiful hotel is just second to none;  located in the center of it all.  An OFFICIAL Bistro offers a state-of-the-art decor and designs. It also features seating along with screens for NFL private viewing!  Not to mention the rooms are spacious with a variety of views. Kudos to Gary/GM, and his awesome Team!!!  Business or Pleasure...It's Official!!!Jan SPlatinum Elite</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r416596654-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>416596654</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Great hotel but problems billing correctly</t>
+  </si>
+  <si>
+    <t>Stayed 6 nights from 31 August to 6 September, for business. The hotel is good, clean and convenient. The reason I am grading Poor is that the cafe/Starbucks style breakfast arrangement result at waiting in a line at counter to order and pay, then wait a good while for the food. Butter/jam missing plus food not cooked as ordered. Not a big deal but disappointing. Breakfast should be quick, all we want is to get out.The main disappointment was that upon checking out at 5 am in the morning the bill was wrong, a restaurant charge was not mine. The associate could not make any adjustment as the computer was not working properly. He promised to make the adjustment later same day and email me the correct invoice. After a few days I received the invoice by email but no adjustments made. So have overpaid my hotel stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tristan D, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 6 nights from 31 August to 6 September, for business. The hotel is good, clean and convenient. The reason I am grading Poor is that the cafe/Starbucks style breakfast arrangement result at waiting in a line at counter to order and pay, then wait a good while for the food. Butter/jam missing plus food not cooked as ordered. Not a big deal but disappointing. Breakfast should be quick, all we want is to get out.The main disappointment was that upon checking out at 5 am in the morning the bill was wrong, a restaurant charge was not mine. The associate could not make any adjustment as the computer was not working properly. He promised to make the adjustment later same day and email me the correct invoice. After a few days I received the invoice by email but no adjustments made. So have overpaid my hotel stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r392936248-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>392936248</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>No regard for wheelchair users!!!</t>
+  </si>
+  <si>
+    <t>Reserved room with roll in shower.   At no time was I told that both of their rooms with roll in showers are known to flood every time shower is used! After showering for the first time, I opened the shower curtain to find my wheelchair sitting in almost 2 inches of water and my shoes soaked.  We called front desk and they sent a maintenance man about one hour later.  drain checked out as working properly in both the shower and the center floor drain .  husband showered and the room flooded again!!  Turns out these rooms are KNOWN to flood due to structural defect!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Reserved room with roll in shower.   At no time was I told that both of their rooms with roll in showers are known to flood every time shower is used! After showering for the first time, I opened the shower curtain to find my wheelchair sitting in almost 2 inches of water and my shoes soaked.  We called front desk and they sent a maintenance man about one hour later.  drain checked out as working properly in both the shower and the center floor drain .  husband showered and the room flooded again!!  Turns out these rooms are KNOWN to flood due to structural defect!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r386190115-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>386190115</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Absolutely excellent</t>
+  </si>
+  <si>
+    <t>I moved mid-trip from another hotel that was awful to this Courtyard.  What a great decision that was!  You can just take the elevator down and walk outside, and everything is just right there.  Right in the center of shopping, dining, everything.  Very convenient.  The room was clean and smelled good.  The bed was super comfortable.  The internet was consistently fast and didn't drop once in my 5 day stay.  I especially appreciated the Ethernet jack at the desk as I much prefer to plug in than use wifi.  The stay was very quiet, even with ongoing construction in the hotel.  They have a nice hot tub spa.  I will definitely return to this Courtyard when visiting Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>I moved mid-trip from another hotel that was awful to this Courtyard.  What a great decision that was!  You can just take the elevator down and walk outside, and everything is just right there.  Right in the center of shopping, dining, everything.  Very convenient.  The room was clean and smelled good.  The bed was super comfortable.  The internet was consistently fast and didn't drop once in my 5 day stay.  I especially appreciated the Ethernet jack at the desk as I much prefer to plug in than use wifi.  The stay was very quiet, even with ongoing construction in the hotel.  They have a nice hot tub spa.  I will definitely return to this Courtyard when visiting Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r385264430-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>385264430</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Booked same day</t>
+  </si>
+  <si>
+    <t>Had family coming into town for a graduation party and needed somewhere to stay for the night. I felt that this location would be great since it's located in the Pearland Town Center. As I expected it was wonderful. Very friendly front desk, so clean and a huge room was a plus! Would definitely recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>Had family coming into town for a graduation party and needed somewhere to stay for the night. I felt that this location would be great since it's located in the Pearland Town Center. As I expected it was wonderful. Very friendly front desk, so clean and a huge room was a plus! Would definitely recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r330506369-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>330506369</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>`Perfect Stay!</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times in the past few months for my daughter's clinical rotations at the medical center and each visit has been a 5 star rating.  The location is awesome - plenty of restaurants and shopping literally right outside your door.  The front desk staff is always super friendly and accommodating and the facilities are ALWAYS super clean.  There are fresh towels on the rack for the pool, plenty of luggage carts available, hallways are immaculate.  When you walk into your room you can literally smell the cleanliness - especially the fresh linens/bedding.  The rooms are spacious with a fridge and microwave.  Thank you for such a nice, clean facility!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times in the past few months for my daughter's clinical rotations at the medical center and each visit has been a 5 star rating.  The location is awesome - plenty of restaurants and shopping literally right outside your door.  The front desk staff is always super friendly and accommodating and the facilities are ALWAYS super clean.  There are fresh towels on the rack for the pool, plenty of luggage carts available, hallways are immaculate.  When you walk into your room you can literally smell the cleanliness - especially the fresh linens/bedding.  The rooms are spacious with a fridge and microwave.  Thank you for such a nice, clean facility!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r330028899-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>330028899</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Courtyard in Pearland - Close to Everything</t>
+  </si>
+  <si>
+    <t>This Courtyard is conveniently located in the Town Center shopping district, which puts you in close proximity to numerous stores and restaurants. The hotel entrance is a bit odd as you have to take an elevator up a floor to check in, but once you are in, the hotel layout is very efficient and accommodating. My guest room was well appointed and provided everything necessary for a productive stay. The property has a modern feel and is very clean. Ample free parking is available, and the area felt very safe. I have stayed at a few different brands of properties in Pearland, and will be coming back to the Courtyard the next time I am in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>This Courtyard is conveniently located in the Town Center shopping district, which puts you in close proximity to numerous stores and restaurants. The hotel entrance is a bit odd as you have to take an elevator up a floor to check in, but once you are in, the hotel layout is very efficient and accommodating. My guest room was well appointed and provided everything necessary for a productive stay. The property has a modern feel and is very clean. Ample free parking is available, and the area felt very safe. I have stayed at a few different brands of properties in Pearland, and will be coming back to the Courtyard the next time I am in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r328614844-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>328614844</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Great place stay!</t>
+  </si>
+  <si>
+    <t>Stayed for 2 weeks for business.Very helpful staff, Ashley at the front desk is professional and very helpful.Yvette &amp; Victoria take care of you like a loving mother would every morning at breakfast.Walking distance to several shops and eateries, Pearland Town Center, make this an overall great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 2 weeks for business.Very helpful staff, Ashley at the front desk is professional and very helpful.Yvette &amp; Victoria take care of you like a loving mother would every morning at breakfast.Walking distance to several shops and eateries, Pearland Town Center, make this an overall great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r311046521-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>311046521</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient for business. </t>
+  </si>
+  <si>
+    <t>This is a good location especially if you travel solo. Lots in walking distance for restaurant or shopping. Nice staff. Clean. Happy hour too. You can order pizza at the bar. You have to figure out how to get around to the back to park but once you do it's a breeze. Close to all freeways and Tolls to ease the pain of city commute. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>This is a good location especially if you travel solo. Lots in walking distance for restaurant or shopping. Nice staff. Clean. Happy hour too. You can order pizza at the bar. You have to figure out how to get around to the back to park but once you do it's a breeze. Close to all freeways and Tolls to ease the pain of city commute. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r307979977-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>307979977</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Everything you need if you find yourself in Pearland!</t>
+  </si>
+  <si>
+    <t>Had a great stay here over a period of three weeks a couple of years ago. Nothing too fancy but the rooms are spacious and comfortable and the restaurant served a solid breakfast in the morning. Have fond memories of this hotel and have sent a few colleagues there when visiting.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r307648035-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>307648035</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel and convenient location</t>
+  </si>
+  <si>
+    <t>Only stayed one night but the room was nice and what you expect from a Courtyard.  The location was great as there were several places to eat all within walking distance.  Husband had the breakfast and said it was fine but not sure it was worth the $</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r296361326-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>296361326</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>One of the best kept secret in Houston- Pearland Courtyard</t>
+  </si>
+  <si>
+    <t>They are the best in keeping guests feel like home away from home. Everyone from management to housekeeping are always looking for ways to care for the guests with a personal touch. I am a Platinum Elite member meaning I sleep at hotel more than I sleep at my house. I could stay any full service Marriott in Houston but I come back here every time for almost 5 years.They remember your name, the names of your family if you shared with them and ask about them. I love it and will recommend this hotel to anyone any day.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r289349223-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>289349223</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>So rude and inconsiderate !!!!!</t>
+  </si>
+  <si>
+    <t>I stayed here booked on Priceline but when I got here they had no reservation made , so I had to pay cash every day, the blonde lady in the front desk white girl was very rude and did not allow us up to our room!! It was late and my 3 year old was ready to sleep she would not let us up till some payment was made because my card was not excepting 2 transactions for this stay!!! It was horrible and I'll never stay there again! They could of been more understanding and professional!MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here booked on Priceline but when I got here they had no reservation made , so I had to pay cash every day, the blonde lady in the front desk white girl was very rude and did not allow us up to our room!! It was late and my 3 year old was ready to sleep she would not let us up till some payment was made because my card was not excepting 2 transactions for this stay!!! It was horrible and I'll never stay there again! They could of been more understanding and professional!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r282766132-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>282766132</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for over 2 weeks while in town for work.  The location was nice.  No specific hotel parking so mall patrons seem to park closest to the hotel entrance.  My room was quite small and no upgrade was offered for being a platinum member.  No welcome gift or acknowledgement was also noted.  It is still disappointing that the courtyard no longer has complimentary breakfast, and the price for what is now offered is ridiculous.  My biggest complaint was the work being done to paint the exteriror of the hotel.  I had to keep my curtains closed as i had workers on scaffolding right outside.  Then my window was covered with plastic for 3 days so i couldnt even seen outside.  Some notice of this would have been nice as i needed to do some work from my room and the noise from the equipment was constant.  I would probably only stay here again for the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for over 2 weeks while in town for work.  The location was nice.  No specific hotel parking so mall patrons seem to park closest to the hotel entrance.  My room was quite small and no upgrade was offered for being a platinum member.  No welcome gift or acknowledgement was also noted.  It is still disappointing that the courtyard no longer has complimentary breakfast, and the price for what is now offered is ridiculous.  My biggest complaint was the work being done to paint the exteriror of the hotel.  I had to keep my curtains closed as i had workers on scaffolding right outside.  Then my window was covered with plastic for 3 days so i couldnt even seen outside.  Some notice of this would have been nice as i needed to do some work from my room and the noise from the equipment was constant.  I would probably only stay here again for the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r270203465-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>270203465</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>End of March 2015 saw me and a business associate in Pearland for 4 days.  I had no expectations but was pleasantly surprised.  The front desk staff were helpful on check in, the room large, clean and well appointed, with a good bed, and the AC just right (I hate walking into a room which feels like Antarctica!).Best surprise was breakfast: I hate hotels that advertise free breakfasts and where everything is styrofoam and plastic (including, it seems, the food ;) but here was a breakfast that was a great price, not fancy but good, with friendly service.  Great value!Lots of dinner options within walking distance, but on the negative side, the area seemed practically deserted at night, so pretty dead.  All in all would stay again if I needed to be in the neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>End of March 2015 saw me and a business associate in Pearland for 4 days.  I had no expectations but was pleasantly surprised.  The front desk staff were helpful on check in, the room large, clean and well appointed, with a good bed, and the AC just right (I hate walking into a room which feels like Antarctica!).Best surprise was breakfast: I hate hotels that advertise free breakfasts and where everything is styrofoam and plastic (including, it seems, the food ;) but here was a breakfast that was a great price, not fancy but good, with friendly service.  Great value!Lots of dinner options within walking distance, but on the negative side, the area seemed practically deserted at night, so pretty dead.  All in all would stay again if I needed to be in the neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r259457561-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>259457561</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Front Desk(lack of) Service</t>
+  </si>
+  <si>
+    <t>A reservation was suppose to have been made and taken care of prior to our visit.  It wasn't.  That wasn't the hotel's fault.  While waiting for our contact to fax in the authorization payment, we had an issue with was how rude the front desk clerk was to us.  From the moment we arrived to the moment we finally got a room.  As we waited to get a room (in the lobby for 30 minutes), she didn't offer to update us on the situation.  She wasn't busy.  Only one other group checked in that whole time.  She seemed more concerned about a closed door meeting behind her than us.  We wouldn't go back just because of the bad experience we had with her.  Everyone else was very friendly.  This occurred Friday late afternoon at 4:30 on 3/13.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>A reservation was suppose to have been made and taken care of prior to our visit.  It wasn't.  That wasn't the hotel's fault.  While waiting for our contact to fax in the authorization payment, we had an issue with was how rude the front desk clerk was to us.  From the moment we arrived to the moment we finally got a room.  As we waited to get a room (in the lobby for 30 minutes), she didn't offer to update us on the situation.  She wasn't busy.  Only one other group checked in that whole time.  She seemed more concerned about a closed door meeting behind her than us.  We wouldn't go back just because of the bad experience we had with her.  Everyone else was very friendly.  This occurred Friday late afternoon at 4:30 on 3/13.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r256215623-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>256215623</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Repeat Visitor</t>
+  </si>
+  <si>
+    <t>My last two visits to the Houston area I've had the pleasure of staying here. Couryard is a great Marriott brand and the location to great shopping, restuarants and easy access to highways. Perfect for a weekend getway or even longer. Definitely looking forward to my next stay. The staff were friendly and helpful both stays and was always willing to accommodate my request. And the lobby bar is definitely a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2015</t>
+  </si>
+  <si>
+    <t>My last two visits to the Houston area I've had the pleasure of staying here. Couryard is a great Marriott brand and the location to great shopping, restuarants and easy access to highways. Perfect for a weekend getway or even longer. Definitely looking forward to my next stay. The staff were friendly and helpful both stays and was always willing to accommodate my request. And the lobby bar is definitely a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r242350970-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>242350970</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Better on prior trip - but still adequate</t>
+  </si>
+  <si>
+    <t>We stayed here several days around the Thanksgiving holidays (and have done so in the past).  It was okay, but we had a better experience last year.  The room was a little cramped.  We had repeated problems with the refrigerator.  Housekeeping was spotty - and one day we got skipped entirely despite a follow-up call to the front desk.  Front desk staff was friendly.  Buffet was just okay with limited selections.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here several days around the Thanksgiving holidays (and have done so in the past).  It was okay, but we had a better experience last year.  The room was a little cramped.  We had repeated problems with the refrigerator.  Housekeeping was spotty - and one day we got skipped entirely despite a follow-up call to the front desk.  Front desk staff was friendly.  Buffet was just okay with limited selections.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r240386006-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>240386006</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Location Good</t>
+  </si>
+  <si>
+    <t>Initially I was unaware this sat in the middle of a pavilion but that ended up being a good ting once I found the parking lot and entrance. A little strange having the lobby on the 2nd floor though. Check in was perfect as we were a coupe of hours early so we had to settle for a handicap room which normally is not a issue. In this case the shower was a disappointment.
+Not sure why they design showers to have water flow completely over the bathroom floor but that' s how they designed it. The TV was smaller but a nice LG however as other customer reviews stated it is locked down and you can not make changes to the settings. No previous channel button or guide. Inconvenient.
+The desk chair I nearly fell completely backwards out of it! Not sure why they selected these chairs but they are junk and unsafe, you can not lean back and actually sit in the thing.
+Breakfast was a disappointment for a "buffet" for $10 per head. I would have rather had the Bistro offerings. It was basically the standard breakfast you would get at a Fairfield property, except $10. I failed to really check the website for having a Bistro and a Starbucks offering.
+All of this being said, the location was good for walking to restaurants and the shops in the pavilion. Due to weather their pool and hot...Initially I was unaware this sat in the middle of a pavilion but that ended up being a good ting once I found the parking lot and entrance. A little strange having the lobby on the 2nd floor though. Check in was perfect as we were a coupe of hours early so we had to settle for a handicap room which normally is not a issue. In this case the shower was a disappointment.Not sure why they design showers to have water flow completely over the bathroom floor but that' s how they designed it. The TV was smaller but a nice LG however as other customer reviews stated it is locked down and you can not make changes to the settings. No previous channel button or guide. Inconvenient.The desk chair I nearly fell completely backwards out of it! Not sure why they selected these chairs but they are junk and unsafe, you can not lean back and actually sit in the thing.Breakfast was a disappointment for a "buffet" for $10 per head. I would have rather had the Bistro offerings. It was basically the standard breakfast you would get at a Fairfield property, except $10. I failed to really check the website for having a Bistro and a Starbucks offering.All of this being said, the location was good for walking to restaurants and the shops in the pavilion. Due to weather their pool and hot tub were closed, it was cold anyhow so not big deal.Pillows: Again, not sure why Marriott is going with these little cotton ball like pillows that go flat. Not comfortable at all. My input to Marriott would be to not nickel and dime yourself to being a mediocre quality. I'm a Platinum member and try to be loyal but this pillow and no hot tub offering is starting make me possibly change brands.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Initially I was unaware this sat in the middle of a pavilion but that ended up being a good ting once I found the parking lot and entrance. A little strange having the lobby on the 2nd floor though. Check in was perfect as we were a coupe of hours early so we had to settle for a handicap room which normally is not a issue. In this case the shower was a disappointment.
+Not sure why they design showers to have water flow completely over the bathroom floor but that' s how they designed it. The TV was smaller but a nice LG however as other customer reviews stated it is locked down and you can not make changes to the settings. No previous channel button or guide. Inconvenient.
+The desk chair I nearly fell completely backwards out of it! Not sure why they selected these chairs but they are junk and unsafe, you can not lean back and actually sit in the thing.
+Breakfast was a disappointment for a "buffet" for $10 per head. I would have rather had the Bistro offerings. It was basically the standard breakfast you would get at a Fairfield property, except $10. I failed to really check the website for having a Bistro and a Starbucks offering.
+All of this being said, the location was good for walking to restaurants and the shops in the pavilion. Due to weather their pool and hot...Initially I was unaware this sat in the middle of a pavilion but that ended up being a good ting once I found the parking lot and entrance. A little strange having the lobby on the 2nd floor though. Check in was perfect as we were a coupe of hours early so we had to settle for a handicap room which normally is not a issue. In this case the shower was a disappointment.Not sure why they design showers to have water flow completely over the bathroom floor but that' s how they designed it. The TV was smaller but a nice LG however as other customer reviews stated it is locked down and you can not make changes to the settings. No previous channel button or guide. Inconvenient.The desk chair I nearly fell completely backwards out of it! Not sure why they selected these chairs but they are junk and unsafe, you can not lean back and actually sit in the thing.Breakfast was a disappointment for a "buffet" for $10 per head. I would have rather had the Bistro offerings. It was basically the standard breakfast you would get at a Fairfield property, except $10. I failed to really check the website for having a Bistro and a Starbucks offering.All of this being said, the location was good for walking to restaurants and the shops in the pavilion. Due to weather their pool and hot tub were closed, it was cold anyhow so not big deal.Pillows: Again, not sure why Marriott is going with these little cotton ball like pillows that go flat. Not comfortable at all. My input to Marriott would be to not nickel and dime yourself to being a mediocre quality. I'm a Platinum member and try to be loyal but this pillow and no hot tub offering is starting make me possibly change brands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r232152393-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>232152393</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Great front desk service, lousy upkeep on hotel.</t>
+  </si>
+  <si>
+    <t>As others have mentioned, the hotel is starting to show its age. This starts with the little things like low water pressure on the higher floors. Worst of all are the TV refurbishments. The new LG 320LY570H models are locked down in hotel mode and set to the lowest possible power setting. What this means... well, as soon as you are tuned in to a channel the TV will start to dim. To a point that watching it with the lights on is impossible, and troublesome even when the lights are off.I have had to deal with it twice, switched rooms a couple of other times and will now just take my business elsewhere.Lack of good courtesy coffee and breakfast options is another black eye. But that is an overall branding issue for Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>As others have mentioned, the hotel is starting to show its age. This starts with the little things like low water pressure on the higher floors. Worst of all are the TV refurbishments. The new LG 320LY570H models are locked down in hotel mode and set to the lowest possible power setting. What this means... well, as soon as you are tuned in to a channel the TV will start to dim. To a point that watching it with the lights on is impossible, and troublesome even when the lights are off.I have had to deal with it twice, switched rooms a couple of other times and will now just take my business elsewhere.Lack of good courtesy coffee and breakfast options is another black eye. But that is an overall branding issue for Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r218369395-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>218369395</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Great hotel Awesome location</t>
+  </si>
+  <si>
+    <t>This hotel is a fantastic blend of good amenities and reasonable price.  The location is super convenient to everywhere we went in Houston, and it wasn't the horrible downtown traffic we encountered to the north.  It is set just in back of an open shopping center, which was great for evenings and anytime we realized we forgot something.  We walked to dinner all three nights we stayed here, plenty of selection right in the shopping district.  This hotel offers FREE wifi which worked very well, and free parking.  We ate breakfast twice, and it wasn't 5 star but certainly adequate.  The room was plenty spacious for the two of us on a 3 night stay.  We will most definitely be staying here again when we are in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is a fantastic blend of good amenities and reasonable price.  The location is super convenient to everywhere we went in Houston, and it wasn't the horrible downtown traffic we encountered to the north.  It is set just in back of an open shopping center, which was great for evenings and anytime we realized we forgot something.  We walked to dinner all three nights we stayed here, plenty of selection right in the shopping district.  This hotel offers FREE wifi which worked very well, and free parking.  We ate breakfast twice, and it wasn't 5 star but certainly adequate.  The room was plenty spacious for the two of us on a 3 night stay.  We will most definitely be staying here again when we are in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r205200705-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205200705</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>My husband &amp; I were headed to cruise from Galveston &amp; stayed over her to visit a friend.  First of all, we called in advance to see if we could check in early since we'd be driving all night and the manager very kindly allowed us.  On top of that they set us up in a corner room - very quiet and the blackout curtains actually did their job.  You know how usually there are always gaps letting the sunlight in.  That was all great.This is also a perfect spot, right off the highway and it's part of an outdoor type mall so tons of eating &amp; shopping within steps of the hotel.   Parking was at the back of the hotel, and lots of it.   Breakfast is an additional charge, but again there are plenty of options just outside your door.  The rooms are your typical Courtyard, the hotel was clean, staff friendly &amp; helpful.   I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2014</t>
+  </si>
+  <si>
+    <t>My husband &amp; I were headed to cruise from Galveston &amp; stayed over her to visit a friend.  First of all, we called in advance to see if we could check in early since we'd be driving all night and the manager very kindly allowed us.  On top of that they set us up in a corner room - very quiet and the blackout curtains actually did their job.  You know how usually there are always gaps letting the sunlight in.  That was all great.This is also a perfect spot, right off the highway and it's part of an outdoor type mall so tons of eating &amp; shopping within steps of the hotel.   Parking was at the back of the hotel, and lots of it.   Breakfast is an additional charge, but again there are plenty of options just outside your door.  The rooms are your typical Courtyard, the hotel was clean, staff friendly &amp; helpful.   I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r201148471-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>201148471</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>This has been my second visit to the Courtyard. Had an excellent stay, staff including breakfast and reception , In fact all I came into contact with were courteous and obliging when problems occured.The hotel is well situated within the Pearland shopping area. A number of restaurants within walking distance, a couple had closed since my last visit in June 2013. My room was of a good standard with everything I needed.The Breakfast buffet style is of a high standard with fresh fruit cereal and a cooked breakfast if this took your fancy.The hotel is approximately 40 mins drive from Houston and 50 mins from the international airport.One issue I did have with an abusive guest during the night was dealt with efficiently by the night porter and offered to move rooms which I accepted .The hotel offers a very good service for the business traveller including arranging cab transfers to the airport.Would certainly use this hotel again on my next visit to the Pearland area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This has been my second visit to the Courtyard. Had an excellent stay, staff including breakfast and reception , In fact all I came into contact with were courteous and obliging when problems occured.The hotel is well situated within the Pearland shopping area. A number of restaurants within walking distance, a couple had closed since my last visit in June 2013. My room was of a good standard with everything I needed.The Breakfast buffet style is of a high standard with fresh fruit cereal and a cooked breakfast if this took your fancy.The hotel is approximately 40 mins drive from Houston and 50 mins from the international airport.One issue I did have with an abusive guest during the night was dealt with efficiently by the night porter and offered to move rooms which I accepted .The hotel offers a very good service for the business traveller including arranging cab transfers to the airport.Would certainly use this hotel again on my next visit to the Pearland area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r186388151-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>186388151</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Very nice property, conveniently located. Professional and courteous staff. Reasonable price for good breakfast. Definitely will be staying here again. Clean and well appointed rooms. Many other restaurants in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded December 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2013</t>
+  </si>
+  <si>
+    <t>Very nice property, conveniently located. Professional and courteous staff. Reasonable price for good breakfast. Definitely will be staying here again. Clean and well appointed rooms. Many other restaurants in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r183881110-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>183881110</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Lovely Hotel, Fantastic Staff</t>
+  </si>
+  <si>
+    <t>I had to stay in Pearland for 2 week for work. From the moment I checked into the Courtyard the staff were nothing but superb. I received a warm welcome, nothing was too much trouble, from setting up and constantly dipping in and out of my safe box, to special breakfast orders, to having the TV at the bar changed over to some sport I wanted to see. The bedrooms are large, with plenty of storage, a big TV and a big desk to work from. The hotel has a small but perfectly use able gym, with cycling machines, tredmills, weights, and cross-trainer, as well a pool, and a cosy hot tub.Jackie, who was normally on the bar or the front desk, is one of the most incredible members of a hotel team I have ever come across. I was amazed to see her remember the names of people who popped out of the lift, to check in having not been there for 6 months. After a long hard day, her warmth and friendliness was really appreciated, from getting me a bag of popcorn at the bar, to ringing up the kitchen on her day off to reminded them about my egg order.I highly recommend this hotel to anyone staying in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded November 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2013</t>
+  </si>
+  <si>
+    <t>I had to stay in Pearland for 2 week for work. From the moment I checked into the Courtyard the staff were nothing but superb. I received a warm welcome, nothing was too much trouble, from setting up and constantly dipping in and out of my safe box, to special breakfast orders, to having the TV at the bar changed over to some sport I wanted to see. The bedrooms are large, with plenty of storage, a big TV and a big desk to work from. The hotel has a small but perfectly use able gym, with cycling machines, tredmills, weights, and cross-trainer, as well a pool, and a cosy hot tub.Jackie, who was normally on the bar or the front desk, is one of the most incredible members of a hotel team I have ever come across. I was amazed to see her remember the names of people who popped out of the lift, to check in having not been there for 6 months. After a long hard day, her warmth and friendliness was really appreciated, from getting me a bag of popcorn at the bar, to ringing up the kitchen on her day off to reminded them about my egg order.I highly recommend this hotel to anyone staying in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r183437062-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>183437062</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Usual Courtyard, but good location for this region</t>
+  </si>
+  <si>
+    <t>You have to have a good reason to come to Pearland as there's not much there except housing and stores. That being said, this place is handy as it's right in the middle of Pearland Town Centre (which is essentially a mall without a roof). Shopping is right outside the door, parking is easy just round the back.The rooms are exactly what you expect from this class of hotel, clean and simple but spacious. The lobby is on the 2nd floor above the stores and has the expected breakfast facilities and vending machines, but the usual Cafe / Bar never seemed to be open here which was odd. That didn't concern me too much as you can walk to a selection of bars and eateries in the town centre and there are more just a short drive away. If I ever have to visit that region again I'd definately use this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>You have to have a good reason to come to Pearland as there's not much there except housing and stores. That being said, this place is handy as it's right in the middle of Pearland Town Centre (which is essentially a mall without a roof). Shopping is right outside the door, parking is easy just round the back.The rooms are exactly what you expect from this class of hotel, clean and simple but spacious. The lobby is on the 2nd floor above the stores and has the expected breakfast facilities and vending machines, but the usual Cafe / Bar never seemed to be open here which was odd. That didn't concern me too much as you can walk to a selection of bars and eateries in the town centre and there are more just a short drive away. If I ever have to visit that region again I'd definately use this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r175096327-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>175096327</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Rude People Dirty Pool</t>
+  </si>
+  <si>
+    <t>First let me say that I stay in Marriott almost everytime I stay in a hotel I am a rewards member silver level.  First the lady working the desk was rude and seemed like she did not want to help me.  My family of 5 stayed in a suite with a king, a pull out and I asked for a roll away.  This was me my wife a 12, 10 and 3 year old.   I would have gotten 2 room but they had no ajoining rooms.  We got in our and one of the tvs would not work called the front desk "same rude woman" she told me it would be 2 hours before she could get someone up.  Great customer service.  They did get this fixed an hour later but only  because I gripped.   We went to the pool later that evening and the pool area is nice just not maintained.  The pool needs a good cleaning and the hot tube dosn't work.  Again the front desk tells me that they will tell someone the next morning that there is nothing they can do that night.  We were staying on the 2nd floor and I went to get some ice but could not find a ice machine went to the front desk and was told that there was not ice machine on my floor and that I would have to go to the 3rd floor, agian the lady at...First let me say that I stay in Marriott almost everytime I stay in a hotel I am a rewards member silver level.  First the lady working the desk was rude and seemed like she did not want to help me.  My family of 5 stayed in a suite with a king, a pull out and I asked for a roll away.  This was me my wife a 12, 10 and 3 year old.   I would have gotten 2 room but they had no ajoining rooms.  We got in our and one of the tvs would not work called the front desk "same rude woman" she told me it would be 2 hours before she could get someone up.  Great customer service.  They did get this fixed an hour later but only  because I gripped.   We went to the pool later that evening and the pool area is nice just not maintained.  The pool needs a good cleaning and the hot tube dosn't work.  Again the front desk tells me that they will tell someone the next morning that there is nothing they can do that night.  We were staying on the 2nd floor and I went to get some ice but could not find a ice machine went to the front desk and was told that there was not ice machine on my floor and that I would have to go to the 3rd floor, agian the lady at the front desk was rude.  The room itself was fine except the A/C never got the room cold enough for me.  The sofa bed is not a double only a single bed.  Marriott needs to take a look at this hotel because I have stayed at quit a few Courtyard and this was by far the worst.  Will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded September 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2013</t>
+  </si>
+  <si>
+    <t>First let me say that I stay in Marriott almost everytime I stay in a hotel I am a rewards member silver level.  First the lady working the desk was rude and seemed like she did not want to help me.  My family of 5 stayed in a suite with a king, a pull out and I asked for a roll away.  This was me my wife a 12, 10 and 3 year old.   I would have gotten 2 room but they had no ajoining rooms.  We got in our and one of the tvs would not work called the front desk "same rude woman" she told me it would be 2 hours before she could get someone up.  Great customer service.  They did get this fixed an hour later but only  because I gripped.   We went to the pool later that evening and the pool area is nice just not maintained.  The pool needs a good cleaning and the hot tube dosn't work.  Again the front desk tells me that they will tell someone the next morning that there is nothing they can do that night.  We were staying on the 2nd floor and I went to get some ice but could not find a ice machine went to the front desk and was told that there was not ice machine on my floor and that I would have to go to the 3rd floor, agian the lady at...First let me say that I stay in Marriott almost everytime I stay in a hotel I am a rewards member silver level.  First the lady working the desk was rude and seemed like she did not want to help me.  My family of 5 stayed in a suite with a king, a pull out and I asked for a roll away.  This was me my wife a 12, 10 and 3 year old.   I would have gotten 2 room but they had no ajoining rooms.  We got in our and one of the tvs would not work called the front desk "same rude woman" she told me it would be 2 hours before she could get someone up.  Great customer service.  They did get this fixed an hour later but only  because I gripped.   We went to the pool later that evening and the pool area is nice just not maintained.  The pool needs a good cleaning and the hot tube dosn't work.  Again the front desk tells me that they will tell someone the next morning that there is nothing they can do that night.  We were staying on the 2nd floor and I went to get some ice but could not find a ice machine went to the front desk and was told that there was not ice machine on my floor and that I would have to go to the 3rd floor, agian the lady at the front desk was rude.  The room itself was fine except the A/C never got the room cold enough for me.  The sofa bed is not a double only a single bed.  Marriott needs to take a look at this hotel because I have stayed at quit a few Courtyard and this was by far the worst.  Will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r169545758-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>169545758</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Group hotel for church meeting</t>
+  </si>
+  <si>
+    <t>This was a hotel option for our church meeting and it was very nice accommodations for the price on the group rate.  The hotel is easy to get to and has ample parking.  It is located in the Town Center so there is an abundance of shopping and restaurants in walking distance.  It is a 4 story hotel with the check in on the 2nd floor.  The upper floors required card access as it was in the busy shopping complex.  The rooms were clean and the furnishings in good repair.  It had an armoire instead of traditional closet which was smaller but had multi-level hanging bars as well as shelving that I enjoyed having.  My biggest complaint about the room is that the bedside lamps and outlets would only work if the light switch by the room door was on but that meant other overhead lights were on as well.  I would prefer for the lamps and outlets work independently from the light switch.  There was a microwave and fridge (no freezer section) in the room as well.  The air conditioning worked wonderfully.  My husband froze me out thinking the normal adjustments wouldn't do much but it made the room too frigid for me.  The breakfast buffet was included in our rate but it looked as though it was around $10 per person normally.  There was a nice variety of breads and pastries, cereals and oatmeal, fruit, yogurt, waffles, eggs,...This was a hotel option for our church meeting and it was very nice accommodations for the price on the group rate.  The hotel is easy to get to and has ample parking.  It is located in the Town Center so there is an abundance of shopping and restaurants in walking distance.  It is a 4 story hotel with the check in on the 2nd floor.  The upper floors required card access as it was in the busy shopping complex.  The rooms were clean and the furnishings in good repair.  It had an armoire instead of traditional closet which was smaller but had multi-level hanging bars as well as shelving that I enjoyed having.  My biggest complaint about the room is that the bedside lamps and outlets would only work if the light switch by the room door was on but that meant other overhead lights were on as well.  I would prefer for the lamps and outlets work independently from the light switch.  There was a microwave and fridge (no freezer section) in the room as well.  The air conditioning worked wonderfully.  My husband froze me out thinking the normal adjustments wouldn't do much but it made the room too frigid for me.  The breakfast buffet was included in our rate but it looked as though it was around $10 per person normally.  There was a nice variety of breads and pastries, cereals and oatmeal, fruit, yogurt, waffles, eggs, bacon, sausage, biscuits and the usual drink options.  The exercise space was nice but simple with 2 treadmills, an elliptical and free weights.  Laundry facilities were clean with complimentary soap and dryer sheets and each load was $1 each for wash and dry.  The outdoor pool was clean with whirlpool as well.  Nice amenities for our group rate although for a normal traveler I can't comment on the value.  It was clean, comfortable and in a good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>This was a hotel option for our church meeting and it was very nice accommodations for the price on the group rate.  The hotel is easy to get to and has ample parking.  It is located in the Town Center so there is an abundance of shopping and restaurants in walking distance.  It is a 4 story hotel with the check in on the 2nd floor.  The upper floors required card access as it was in the busy shopping complex.  The rooms were clean and the furnishings in good repair.  It had an armoire instead of traditional closet which was smaller but had multi-level hanging bars as well as shelving that I enjoyed having.  My biggest complaint about the room is that the bedside lamps and outlets would only work if the light switch by the room door was on but that meant other overhead lights were on as well.  I would prefer for the lamps and outlets work independently from the light switch.  There was a microwave and fridge (no freezer section) in the room as well.  The air conditioning worked wonderfully.  My husband froze me out thinking the normal adjustments wouldn't do much but it made the room too frigid for me.  The breakfast buffet was included in our rate but it looked as though it was around $10 per person normally.  There was a nice variety of breads and pastries, cereals and oatmeal, fruit, yogurt, waffles, eggs,...This was a hotel option for our church meeting and it was very nice accommodations for the price on the group rate.  The hotel is easy to get to and has ample parking.  It is located in the Town Center so there is an abundance of shopping and restaurants in walking distance.  It is a 4 story hotel with the check in on the 2nd floor.  The upper floors required card access as it was in the busy shopping complex.  The rooms were clean and the furnishings in good repair.  It had an armoire instead of traditional closet which was smaller but had multi-level hanging bars as well as shelving that I enjoyed having.  My biggest complaint about the room is that the bedside lamps and outlets would only work if the light switch by the room door was on but that meant other overhead lights were on as well.  I would prefer for the lamps and outlets work independently from the light switch.  There was a microwave and fridge (no freezer section) in the room as well.  The air conditioning worked wonderfully.  My husband froze me out thinking the normal adjustments wouldn't do much but it made the room too frigid for me.  The breakfast buffet was included in our rate but it looked as though it was around $10 per person normally.  There was a nice variety of breads and pastries, cereals and oatmeal, fruit, yogurt, waffles, eggs, bacon, sausage, biscuits and the usual drink options.  The exercise space was nice but simple with 2 treadmills, an elliptical and free weights.  Laundry facilities were clean with complimentary soap and dryer sheets and each load was $1 each for wash and dry.  The outdoor pool was clean with whirlpool as well.  Nice amenities for our group rate although for a normal traveler I can't comment on the value.  It was clean, comfortable and in a good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r165536450-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>165536450</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Great Marriott!</t>
+  </si>
+  <si>
+    <t>This is a great hotel close enough to Houston for all business needs but yet far enough away from the hustle and bustle to actually relax. Plenty of parking. Excellent shopping as it is located right in the middle of a major shopping mall. Walking distance to good places to eat, have a cold adult beverage, get a mani-pedi and even get your hair cut and colored! Traveling solo mostly for business, I look for a place I can feel safe at and this is it. The staff is great. I know all by name and have never had any problems. Very relaxing business hotel. Any place that would send sliced oranges up to my room is number one in my book!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>This is a great hotel close enough to Houston for all business needs but yet far enough away from the hustle and bustle to actually relax. Plenty of parking. Excellent shopping as it is located right in the middle of a major shopping mall. Walking distance to good places to eat, have a cold adult beverage, get a mani-pedi and even get your hair cut and colored! Traveling solo mostly for business, I look for a place I can feel safe at and this is it. The staff is great. I know all by name and have never had any problems. Very relaxing business hotel. Any place that would send sliced oranges up to my room is number one in my book!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r140722833-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>140722833</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Great business hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard in Spring 2012 and I was more than pleased. I was traveling for work and stayed a total of 3 nights.  I found their directions helpful and they are located in a great area.  It is an outdoor mall area with a lot of stores and restaurants in walking distance. Check in was quick and very friendly service.  Myself and a coworker asked the front for the best restaurants in the area and she pointed out her favorites. All of her choices were great. Room was clean and comfortable. The bed was comfortable and I slept well with little noise herd from the hallway or the outside of the hotel. Breakfast was included in my room rate. Food was about what you would expect for a hotel, nothing to write home about and nothing horrible either. Checkout was quick and the front had two people available to check out all the business people that were trying to leave about the same town. I would stay here again if I was in the area without hesitationMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard in Spring 2012 and I was more than pleased. I was traveling for work and stayed a total of 3 nights.  I found their directions helpful and they are located in a great area.  It is an outdoor mall area with a lot of stores and restaurants in walking distance. Check in was quick and very friendly service.  Myself and a coworker asked the front for the best restaurants in the area and she pointed out her favorites. All of her choices were great. Room was clean and comfortable. The bed was comfortable and I slept well with little noise herd from the hallway or the outside of the hotel. Breakfast was included in my room rate. Food was about what you would expect for a hotel, nothing to write home about and nothing horrible either. Checkout was quick and the front had two people available to check out all the business people that were trying to leave about the same town. I would stay here again if I was in the area without hesitationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r133768793-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>133768793</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Nice stay, excellent location</t>
+  </si>
+  <si>
+    <t>Pleasant staff, clean room, excellent location. A little pricey sometimes compared to other area hotels, but I just happened to catch a decent deal off the Marriott website that included breakfast for two with a reasonable rate for the room. About what you'd expect for a Courtyard in every way. One of the biggest distinctions is the location, very convenient and walkable to tons of shopping, dining, and grocery. There's even a small lake at the front (it's actually kind of the back, since it faces away from the road) of the property that has a walking path around it.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r132884862-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>132884862</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Experience at the Marriott</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at this hotel.  It was very clean and the staff was extremely helpful and nice.  The Marriott is right on the mall area.  Excellent location for shopping.  Everything you need is so conveniently close.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r131136301-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>131136301</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>One of the upper-scale Courtyards</t>
+  </si>
+  <si>
+    <t>Know what you expect from Courtyard - this is not J.W. Marriott nor it is Fairfield Inn. It is a business chain, but a very good one and this hotel is excellent in its class. Super-clean, nice service, but most of all superb location at the Pearland mall, with tons of shopping and dining options. Pretty close to Houston airport also.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r130095532-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>130095532</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Excellent Hotel in Excellent Location.</t>
+  </si>
+  <si>
+    <t>I just returned home from a trip to the Houston area and stayed one night at the Courtyard Houston Pearland.  I found it very easy to locate (just a couple blocks west of Hwy 288 at the 518 exit).  The hotel is in a very nice and safe location next to a mall (Town Center) filled with shops and restaurants all within an easy walk.  Parking is excellent too.  My room overlooked the parking area with a very nice view of a park where one could take a leisurely walk in a safe environment.  Room was excellent with absolutely no problems.  Check-in and check-out was excellent with a very courteous staff.  I would definitely stay at this hotel again if my travels should take me to this area of Houston in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just returned home from a trip to the Houston area and stayed one night at the Courtyard Houston Pearland.  I found it very easy to locate (just a couple blocks west of Hwy 288 at the 518 exit).  The hotel is in a very nice and safe location next to a mall (Town Center) filled with shops and restaurants all within an easy walk.  Parking is excellent too.  My room overlooked the parking area with a very nice view of a park where one could take a leisurely walk in a safe environment.  Room was excellent with absolutely no problems.  Check-in and check-out was excellent with a very courteous staff.  I would definitely stay at this hotel again if my travels should take me to this area of Houston in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r127254316-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>127254316</t>
+  </si>
+  <si>
+    <t>04/04/2012</t>
+  </si>
+  <si>
+    <t>Good Location for Shopping</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel on business for a few days.  Hotel is part of the Pearland Towncenter with the rooms upstairs from Victoria's Secret !Very good location for shopping, as soon as you walk out the doors, you can head straight into the main street of the towncenter.  Had a view of Macy's department store from the room window !Staff are very friendly and helpfulBreakfast is typical, not much selections.  There are may restaurant chains all within 5 to 10 mins walk of the hotel.The room itself was very spacious, clean and comfortable, the only downside was noisy AC unit.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r123995392-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>123995392</t>
+  </si>
+  <si>
+    <t>02/01/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel in Pearland shopping center</t>
+  </si>
+  <si>
+    <t>A very nice hotel in the heart of an outdoor shopping center.  Plenty of restaurants, stores, Starbucks, and a Barnes and Noble.  This area (and Pearland) gets very hectic with traffic.  It can be like pulling teeth driving or moving through the bigger stores down here.  It's right off highway 288, so one can avoid some of the side street mania (for highway mania).  Only complaint about the hotel is that you are paying a premium for the room, yet they still charge you for breakfast.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r123460001-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>123460001</t>
+  </si>
+  <si>
+    <t>01/22/2012</t>
+  </si>
+  <si>
+    <t>Better than average hotel</t>
+  </si>
+  <si>
+    <t>Although our room was clean and pleasant the hallway from the elevator was overlooked on both days of a two night stay. It was nice to have several restaurants within walking distance of the hotel from which to choose. Staff was friendly and accommodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r120513945-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120513945</t>
+  </si>
+  <si>
+    <t>11/12/2011</t>
+  </si>
+  <si>
+    <t>Location is in the middle of great shopping</t>
+  </si>
+  <si>
+    <t>We enjoyed the convenient shopping in the adjacent Pearland Town Center.  The breakfast was very good for a hotel without a resturant.  Our only complaint is that the outdoor hot tub was too hot to be comfortable.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r117326355-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>117326355</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>Very Good .. Between Houston Downtown and Freeport</t>
+  </si>
+  <si>
+    <t>I had some work to do in Freeport, Texas. This hotel was close to Freeport and to Houston Downtown and the same time. In the middle of a shopping area with a plenty of restaurants. Spacious and comfortable room.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r116525489-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>116525489</t>
+  </si>
+  <si>
+    <t>08/10/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We hosted a birthday party for my husband at Mer Cheri's Martini Bar in the Pearland Town Center back in April. I knew everyone would be drinking and thought that it was a good idea to book a hotel room for that night. The hotel is a 2 minute walk from the Martini Bar! It was very convenient and comformtable. We loved it! it was a great ending to our night! Would definitely recommend this hotel to anyone!</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r108721672-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>108721672</t>
+  </si>
+  <si>
+    <t>05/17/2011</t>
+  </si>
+  <si>
+    <t>Great location &amp; modern hotel</t>
+  </si>
+  <si>
+    <t>Stayed 3 days here midweek.  It's in the middle of a shopping center with many shops and restaurants which was nice.  Hotel is only 3 years old and modern.  Great decor and colors.Rooms are nice with couch, desk, comfortable beds, refrigerator, and coffee maker.  Bathrooms are roomy and nice but shower grout not in great condition and shower curtain not terribly clean looking.  No odors but could be better kept.  Also room lighting a bit dusty.This hotel does not provide free breakfast (costs $10) and offers a limited menu besides.  Does have a bar in the evenings.  Free Internet access is faster wired than wireless.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r79395471-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>79395471</t>
+  </si>
+  <si>
+    <t>09/13/2010</t>
+  </si>
+  <si>
+    <t>Clean, Quite &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>Nice hotel.All staff very friendly, helpful and polite.Rooms cleaned very thoroughly every day.Aircon a little noisy but not really necessary so I turned it off.Ideal for business trip.Lots of free parking.Breakfast very good value, great waffles you can cook for yourself.Pool pretty small but okay.Has a small shop/market selling mainly chocolate, crisps, some microwave meals - note the breakfast area has a microwave which you can use.The hotel is surround by shops and a good selection of restaurants within a five minute walk, all the ones I tried were great  with a good selection even for vegetarians, these are my three personal favorites.Red Robin - Fantastic veggie burgers best selection I have found anywhere.Mongos Fire Pit - great stir fries, select the fresh ingredients/sauces and they cook it for you.Freebirds World Burrito - Excellent built to order veggie burrito with nachos.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel.All staff very friendly, helpful and polite.Rooms cleaned very thoroughly every day.Aircon a little noisy but not really necessary so I turned it off.Ideal for business trip.Lots of free parking.Breakfast very good value, great waffles you can cook for yourself.Pool pretty small but okay.Has a small shop/market selling mainly chocolate, crisps, some microwave meals - note the breakfast area has a microwave which you can use.The hotel is surround by shops and a good selection of restaurants within a five minute walk, all the ones I tried were great  with a good selection even for vegetarians, these are my three personal favorites.Red Robin - Fantastic veggie burgers best selection I have found anywhere.Mongos Fire Pit - great stir fries, select the fresh ingredients/sauces and they cook it for you.Freebirds World Burrito - Excellent built to order veggie burrito with nachos.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r59090006-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>59090006</t>
+  </si>
+  <si>
+    <t>03/20/2010</t>
+  </si>
+  <si>
+    <t>Good location and Value for money</t>
+  </si>
+  <si>
+    <t>Although a little costly than the ones nearby, this place is value for money considering its easy approach location. Its in the middle of the new town center of Pearland. The breakfast they serve is OK, atleast better than the 2 others I have been in near past. If you are out of town, without a car, the location of the hotel provides you with multiple choices, for food, shopping, massage parlours etc with in walking distances. Internet connectivity was fine.Remember, this is a smoke free hotel , like almost all others.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r54414042-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>54414042</t>
+  </si>
+  <si>
+    <t>01/26/2010</t>
+  </si>
+  <si>
+    <t>suprisingly nice</t>
+  </si>
+  <si>
+    <t>There were five of us girls who went down to Pearland for a shower, and the hotel was suprisingly nice, and the room was really big and clean and the staff was very friendly. Would definitly stay again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r44722351-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>44722351</t>
+  </si>
+  <si>
+    <t>09/26/2009</t>
+  </si>
+  <si>
+    <t>So Comfortable!!</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night, wish it would have been longer.  Beds and pillows were so comfortable, slept like a baby. Big bathroom, lots of towels.  Flat screen TV.  Good view of the shops in the outdoor mall.  Loved the pool and the hot tub. Hotel sits in the middle of tons of shopping centers, restaurants and even a movie theatre. Will definitely stay here again when visiting the greater Houston area.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1893,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1925,3865 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>289</v>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" t="s">
+        <v>293</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>294</v>
+      </c>
+      <c r="X31" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>302</v>
+      </c>
+      <c r="O33" t="s">
+        <v>248</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>319</v>
+      </c>
+      <c r="X34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" t="s">
+        <v>325</v>
+      </c>
+      <c r="L35" t="s">
+        <v>326</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>248</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>337</v>
+      </c>
+      <c r="X36" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" t="s">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s">
+        <v>344</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>336</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>337</v>
+      </c>
+      <c r="X37" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>351</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>360</v>
+      </c>
+      <c r="X39" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>360</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>375</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>376</v>
+      </c>
+      <c r="X41" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>380</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>384</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>393</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>394</v>
+      </c>
+      <c r="X43" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>398</v>
+      </c>
+      <c r="J44" t="s">
+        <v>399</v>
+      </c>
+      <c r="K44" t="s">
+        <v>400</v>
+      </c>
+      <c r="L44" t="s">
+        <v>401</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>402</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>409</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>411</v>
+      </c>
+      <c r="J46" t="s">
+        <v>412</v>
+      </c>
+      <c r="K46" t="s">
+        <v>413</v>
+      </c>
+      <c r="L46" t="s">
+        <v>414</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>402</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>415</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>416</v>
+      </c>
+      <c r="J47" t="s">
+        <v>417</v>
+      </c>
+      <c r="K47" t="s">
+        <v>418</v>
+      </c>
+      <c r="L47" t="s">
+        <v>419</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>420</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>421</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>422</v>
+      </c>
+      <c r="J48" t="s">
+        <v>423</v>
+      </c>
+      <c r="K48" t="s">
+        <v>424</v>
+      </c>
+      <c r="L48" t="s">
+        <v>425</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>420</v>
+      </c>
+      <c r="O48" t="s">
+        <v>293</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>428</v>
+      </c>
+      <c r="J49" t="s">
+        <v>429</v>
+      </c>
+      <c r="K49" t="s">
+        <v>430</v>
+      </c>
+      <c r="L49" t="s">
+        <v>431</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>432</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" t="s">
+        <v>435</v>
+      </c>
+      <c r="K50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L50" t="s">
+        <v>437</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>438</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>439</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>440</v>
+      </c>
+      <c r="J51" t="s">
+        <v>441</v>
+      </c>
+      <c r="K51" t="s">
+        <v>442</v>
+      </c>
+      <c r="L51" t="s">
+        <v>443</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>438</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>445</v>
+      </c>
+      <c r="J52" t="s">
+        <v>446</v>
+      </c>
+      <c r="K52" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" t="s">
+        <v>448</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>449</v>
+      </c>
+      <c r="O52" t="s">
+        <v>248</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>451</v>
+      </c>
+      <c r="J53" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" t="s">
+        <v>453</v>
+      </c>
+      <c r="L53" t="s">
+        <v>454</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>455</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>456</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" t="s">
+        <v>458</v>
+      </c>
+      <c r="K54" t="s">
+        <v>459</v>
+      </c>
+      <c r="L54" t="s">
+        <v>460</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>461</v>
+      </c>
+      <c r="O54" t="s">
+        <v>248</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>463</v>
+      </c>
+      <c r="J55" t="s">
+        <v>464</v>
+      </c>
+      <c r="K55" t="s">
+        <v>465</v>
+      </c>
+      <c r="L55" t="s">
+        <v>466</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>467</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>468</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>469</v>
+      </c>
+      <c r="J56" t="s">
+        <v>470</v>
+      </c>
+      <c r="K56" t="s">
+        <v>471</v>
+      </c>
+      <c r="L56" t="s">
+        <v>472</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>455</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>474</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>475</v>
+      </c>
+      <c r="J57" t="s">
+        <v>476</v>
+      </c>
+      <c r="K57" t="s">
+        <v>477</v>
+      </c>
+      <c r="L57" t="s">
+        <v>478</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>479</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>481</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>479</v>
+      </c>
+      <c r="O58" t="s">
+        <v>485</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>487</v>
+      </c>
+      <c r="J59" t="s">
+        <v>488</v>
+      </c>
+      <c r="K59" t="s">
+        <v>489</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>491</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_153.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_153.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="767">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r613628517-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1165138</t>
+  </si>
+  <si>
+    <t>613628517</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>This Courtyard is in a great location if you want to be near shopping and restaurants! The rooms were new, beds comfortable and parking free. The bistro service was a bit slow in the mornings but better than nothing. I will stay at this property again.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r599079330-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>599079330</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel, if you don't need to use water in the sink</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times before, and enjoy nearly everything about it.  The bed is very comfortable, the hotel is quiet and clean, it's not hard to park and there is lots to see and do right outside the door.They have recently upgraded most of the bath amenities from Paul Mitchell to Tea Tree, which is a real improvement.However, the water pressure in the bathroom sink is ridiculous.  Whether hot or cold, it is just a trickle.  I have had this issue on prior stays as well and mentioned it, but the issue remains.  It is so bad I had to rinse my razor and wash hands in the bathtub.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times before, and enjoy nearly everything about it.  The bed is very comfortable, the hotel is quiet and clean, it's not hard to park and there is lots to see and do right outside the door.They have recently upgraded most of the bath amenities from Paul Mitchell to Tea Tree, which is a real improvement.However, the water pressure in the bathroom sink is ridiculous.  Whether hot or cold, it is just a trickle.  I have had this issue on prior stays as well and mentioned it, but the issue remains.  It is so bad I had to rinse my razor and wash hands in the bathtub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r598988729-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>598988729</t>
+  </si>
+  <si>
+    <t>They take care of you!</t>
+  </si>
+  <si>
+    <t>I travel here weekly.  With each visit, I am very satisfied with both the staff and room.  Rooms are very spacious.  They go out of there way to make sure your stay is a pleasant one.  Walking distance to restaurants and shopping. A++</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r598306538-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>1165138</t>
-  </si>
-  <si>
     <t>598306538</t>
   </si>
   <si>
@@ -174,16 +234,10 @@
     <t>My family stayed at the hotel and the first impression was good at first. However, the hotel had bed bugs or some kind of insects that bite me, my wife and our baby. Our adjacent rooms were also effected and there were signs of chemical spread cans in the hallway. The manager claimed ignorant of the situation and pretended no issues related to insects had impacted the hotel in the past. It was a terrible experience and the hotel could have handled better.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
   </si>
   <si>
     <t>My family stayed at the hotel and the first impression was good at first. However, the hotel had bed bugs or some kind of insects that bite me, my wife and our baby. Our adjacent rooms were also effected and there were signs of chemical spread cans in the hallway. The manager claimed ignorant of the situation and pretended no issues related to insects had impacted the hotel in the past. It was a terrible experience and the hotel could have handled better.More</t>
@@ -246,6 +300,60 @@
     <t>Was grateful that they allowed us to check in early as there was a room available. Room was modern with a comfortable bed and ample pillows and even had a sofa that could convert out to a bed. Housekeeping was well performed and cleanliness was excellent. Only complaint was the air conditioning which was hard to figure out. One degree down and it became too cold and one up it was too warm. Nonetheless, it was bearable. Gym had limited equipment comprising of cardio machines and one bench together with dumbbells up to 45 lbs. Laundry room comprised of one set of a washer and dryer and was very reasonably priced at $1 per cycle per machine. The detergent and dryer sheet were also available free from the Front Desk. Overall a great experience and would recommend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r579925603-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>579925603</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Very good and friendly hotel in Pearland</t>
+  </si>
+  <si>
+    <t>Very nice, clean rooms with excellent staff.  Good for overnight in Houston/Pearland area.  Beds were good.  Did not have breakfast included.  Interesting check-in on the second floor of a shopping center.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Very nice, clean rooms with excellent staff.  Good for overnight in Houston/Pearland area.  Beds were good.  Did not have breakfast included.  Interesting check-in on the second floor of a shopping center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r565286911-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>565286911</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Good stay. Staff friendly and professional. Bed and pillows were comfortable. Room was clean and appears to be recently updated. Great location within an outdoor mall. Plenty of parking. Plenty of restaurant choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Good stay. Staff friendly and professional. Bed and pillows were comfortable. Room was clean and appears to be recently updated. Great location within an outdoor mall. Plenty of parking. Plenty of restaurant choices.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r563258182-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -264,12 +372,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded March 10, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 10, 2018</t>
-  </si>
-  <si>
     <t>I’ve been coming to this hotel for over 5 years and appreciate the recent makeover and the consistency of great service.  Truly home away from home for the business traveler.  The new Bistro is a convenience I wouldn’t want to do without.More</t>
   </si>
   <si>
@@ -324,6 +426,51 @@
     <t>We stay for holiday and visit the family. And  we have an excellent experience, the breakfast is good they serve a nice portion is not buffet like other places. They have to work more on the pillow, for me are not confiable. My wife are super happy because in the first floor it’s the shopping mall. Shops &amp; dining experience, overall we have a nice week hear. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r543835152-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>543835152</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Staycation</t>
+  </si>
+  <si>
+    <t>Wonderful and friendly staff.  Clean and very nice hotel. Great location...great place to stay. Shopping and restaurants just steps away and in close driving proximity to other restaurants and attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful and friendly staff.  Clean and very nice hotel. Great location...great place to stay. Shopping and restaurants just steps away and in close driving proximity to other restaurants and attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r543708052-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>543708052</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>The staff is wonderful and extremely helpful. I have been staying at this property for around 8 years, and I’m treated as family. I highly recommend this property to anyone traveling to the Houston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is wonderful and extremely helpful. I have been staying at this property for around 8 years, and I’m treated as family. I highly recommend this property to anyone traveling to the Houston area. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r540213743-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -339,9 +486,6 @@
     <t>We regularly travel to Houston on business and have struggled to find a hotel that is in a nice area close to where we need to stay. This one was perfect. We plan to stay there each time we need to be in that vicinity of Houston. In addition to being such a nicely maintained and staffed hotel, the location was great. There are a variety of restaurant and shopping options and everyone we met was very friendly.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded November 13, 2017</t>
   </si>
   <si>
@@ -405,6 +549,48 @@
     <t>Nice hotel at a good location. Enjoyed being able to walk to nearby shops. Hotel property and rooms were very clean and meet Marriott standards. Staff was friendly and customer service was very good. The front desk staff was very efficient and accommodating.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r488818301-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>488818301</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Still a good choice</t>
+  </si>
+  <si>
+    <t>Been staying here for a little over 2 years generally two to three times a night. The location is great. Parking that says for hotel only isn't enforced yet felt say walking at night from car that I had to park farther away.I did notice that the staff didn't seem as friendly this past visit or as attentive as in previous visits</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r483528983-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>483528983</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable rooms </t>
+  </si>
+  <si>
+    <t>Clean and comfortable hotel. We had good response from most of the staff but I think it's the area . Which is difficult to find good staff, there was a 50 minute wait at steak and shake as the staff did not show up to work.The plus points .....Comfy bedsNice bathroomsCoffee making facility in roomGood locationRelaxing Gym is ok The bad points ....No tea making in room, must buy a tea down stairs for 3 bucksNo Buffet breakfast included Only one washing machine and dryer for the entire hotelNo lay down sun beds by the poolMoreShow less</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable hotel. We had good response from most of the staff but I think it's the area . Which is difficult to find good staff, there was a 50 minute wait at steak and shake as the staff did not show up to work.The plus points .....Comfy bedsNice bathroomsCoffee making facility in roomGood locationRelaxing Gym is ok The bad points ....No tea making in room, must buy a tea down stairs for 3 bucksNo Buffet breakfast included Only one washing machine and dryer for the entire hotelNo lay down sun beds by the poolMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r474058399-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -486,6 +672,60 @@
     <t>The rooms are a little small, but they are nicely decorated and clean and very quiet. The hotel itself is in a shopping/residential center, so it is very close to restaurants and safe walking areas. The entire area is pretty commercial, so there are lots of amenities.I've seen other comments about noisy guests, but I was here mid-week and heard virtually nothing. .More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r450917870-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>450917870</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Beware of rude staff!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel a total of 8 nights over the festive period.  First of all, do not pay attention to the review that states this is next to 'shady' apartments.  They are in no way shady or dodgy and the 'security fence' is no more than a regular secure entrance that anyone would want on their property, particularly when you have a nice pool and bbq area that you don't want everyone and their dog using!  The hotel is well located in downtown Pearland and about a 25 minute drive from downtown Houston.  The hotel is clean, the facilities are modern and the rooms are relatively spacious.  There is also lots of free parking on site, a decent gym and a pool.  Most of the staff I met were very friendly and in particular, Siobhan in the cafe was extremely pleasant and helpful.  However, one experience with a member of staff on reception really soured my experience of this hotel and whilst I received an apology from the Operations Manager after I had complained, it still didn't really feel like enough given the amount of money I had spent there over a 2 week period.  On returning to my room around 6pm after leaving at 12.30pm, my room had not been serviced - we called down to reception and initially were only told that housekeeping had gone home so they couldn't do anything.  When repeating again that we...I stayed at this hotel a total of 8 nights over the festive period.  First of all, do not pay attention to the review that states this is next to 'shady' apartments.  They are in no way shady or dodgy and the 'security fence' is no more than a regular secure entrance that anyone would want on their property, particularly when you have a nice pool and bbq area that you don't want everyone and their dog using!  The hotel is well located in downtown Pearland and about a 25 minute drive from downtown Houston.  The hotel is clean, the facilities are modern and the rooms are relatively spacious.  There is also lots of free parking on site, a decent gym and a pool.  Most of the staff I met were very friendly and in particular, Siobhan in the cafe was extremely pleasant and helpful.  However, one experience with a member of staff on reception really soured my experience of this hotel and whilst I received an apology from the Operations Manager after I had complained, it still didn't really feel like enough given the amount of money I had spent there over a 2 week period.  On returning to my room around 6pm after leaving at 12.30pm, my room had not been serviced - we called down to reception and initially were only told that housekeeping had gone home so they couldn't do anything.  When repeating again that we still needed our room serviced, the lady on the other end of the phone interrupted and rudely asked what it was we wanted her to do.  Totally unacceptable and extremely poor customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Gary S, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel a total of 8 nights over the festive period.  First of all, do not pay attention to the review that states this is next to 'shady' apartments.  They are in no way shady or dodgy and the 'security fence' is no more than a regular secure entrance that anyone would want on their property, particularly when you have a nice pool and bbq area that you don't want everyone and their dog using!  The hotel is well located in downtown Pearland and about a 25 minute drive from downtown Houston.  The hotel is clean, the facilities are modern and the rooms are relatively spacious.  There is also lots of free parking on site, a decent gym and a pool.  Most of the staff I met were very friendly and in particular, Siobhan in the cafe was extremely pleasant and helpful.  However, one experience with a member of staff on reception really soured my experience of this hotel and whilst I received an apology from the Operations Manager after I had complained, it still didn't really feel like enough given the amount of money I had spent there over a 2 week period.  On returning to my room around 6pm after leaving at 12.30pm, my room had not been serviced - we called down to reception and initially were only told that housekeeping had gone home so they couldn't do anything.  When repeating again that we...I stayed at this hotel a total of 8 nights over the festive period.  First of all, do not pay attention to the review that states this is next to 'shady' apartments.  They are in no way shady or dodgy and the 'security fence' is no more than a regular secure entrance that anyone would want on their property, particularly when you have a nice pool and bbq area that you don't want everyone and their dog using!  The hotel is well located in downtown Pearland and about a 25 minute drive from downtown Houston.  The hotel is clean, the facilities are modern and the rooms are relatively spacious.  There is also lots of free parking on site, a decent gym and a pool.  Most of the staff I met were very friendly and in particular, Siobhan in the cafe was extremely pleasant and helpful.  However, one experience with a member of staff on reception really soured my experience of this hotel and whilst I received an apology from the Operations Manager after I had complained, it still didn't really feel like enough given the amount of money I had spent there over a 2 week period.  On returning to my room around 6pm after leaving at 12.30pm, my room had not been serviced - we called down to reception and initially were only told that housekeeping had gone home so they couldn't do anything.  When repeating again that we still needed our room serviced, the lady on the other end of the phone interrupted and rudely asked what it was we wanted her to do.  Totally unacceptable and extremely poor customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r440472399-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>440472399</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Sufficient for a "Single-night" Stay!</t>
+  </si>
+  <si>
+    <t>Had to accompany a relative to Pearland for a "quick" trip. This location of this hotel was convenient. The room was nicely decorated. The bed was fairly comfortable. Lots of Noisy children running up and down the hallways.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Had to accompany a relative to Pearland for a "quick" trip. This location of this hotel was convenient. The room was nicely decorated. The bed was fairly comfortable. Lots of Noisy children running up and down the hallways.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r430425767-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -552,6 +792,60 @@
     <t>Stayed 6 nights from 31 August to 6 September, for business. The hotel is good, clean and convenient. The reason I am grading Poor is that the cafe/Starbucks style breakfast arrangement result at waiting in a line at counter to order and pay, then wait a good while for the food. Butter/jam missing plus food not cooked as ordered. Not a big deal but disappointing. Breakfast should be quick, all we want is to get out.The main disappointment was that upon checking out at 5 am in the morning the bill was wrong, a restaurant charge was not mine. The associate could not make any adjustment as the computer was not working properly. He promised to make the adjustment later same day and email me the correct invoice. After a few days I received the invoice by email but no adjustments made. So have overpaid my hotel stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r406783545-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>406783545</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>A very pleasant stay...</t>
+  </si>
+  <si>
+    <t>I was greeted with professionalism by Michelle at the front desk.  A rainy night, I had no reservation and was maxed out on my two credit cards so a cash deposit was accepted. Room was posh! Staff most kind including each of the ladies in the Bistro, the ladies at the front desk and a man who took my picture at my request. This man turned out to be the GM of the hotel.  He had a servant's heart, very humble yet professional and excellently groomed from head to toe, as a hotel manager of that caliber should be!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>I was greeted with professionalism by Michelle at the front desk.  A rainy night, I had no reservation and was maxed out on my two credit cards so a cash deposit was accepted. Room was posh! Staff most kind including each of the ladies in the Bistro, the ladies at the front desk and a man who took my picture at my request. This man turned out to be the GM of the hotel.  He had a servant's heart, very humble yet professional and excellently groomed from head to toe, as a hotel manager of that caliber should be!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r401987896-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>401987896</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Convenient Stay</t>
+  </si>
+  <si>
+    <t>Rooms got some space. Construction was going on at the time of my visit, they were renovating some rooms but they did that during the daytime out of respect for those resting at night. There is a bar in the restaurant. When you get in nothing is on the ground floor, you must take the elevator up to check in. Check in is a breeze. Carts are available beside the check in counter if you dont see one downstairs by the elevator. There is onsite laundry you can get coins\change at the check-in\receptionist counter. There is a mini store to get some essentials. The hotel is attached to the Pearland Towncenter mall. Food, shopping and entertainment is 1 minute walking away. Parking is spacious. There is a pool and sauna outside.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>SMorrison311WK, Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Rooms got some space. Construction was going on at the time of my visit, they were renovating some rooms but they did that during the daytime out of respect for those resting at night. There is a bar in the restaurant. When you get in nothing is on the ground floor, you must take the elevator up to check in. Check in is a breeze. Carts are available beside the check in counter if you dont see one downstairs by the elevator. There is onsite laundry you can get coins\change at the check-in\receptionist counter. There is a mini store to get some essentials. The hotel is attached to the Pearland Towncenter mall. Food, shopping and entertainment is 1 minute walking away. Parking is spacious. There is a pool and sauna outside.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r392936248-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -621,6 +915,39 @@
     <t>Had family coming into town for a graduation party and needed somewhere to stay for the night. I felt that this location would be great since it's located in the Pearland Town Center. As I expected it was wonderful. Very friendly front desk, so clean and a huge room was a plus! Would definitely recommend. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r383928042-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>383928042</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location and just renovated </t>
+  </si>
+  <si>
+    <t>Stayed here many times. Shopping very convenient as well as restaurants, within close walking distance. Spacious rooms. AAU basketball families playing in local tourneys makes this a must stay. One downside, only has one washer and dryer. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here many times. Shopping very convenient as well as restaurants, within close walking distance. Spacious rooms. AAU basketball families playing in local tourneys makes this a must stay. One downside, only has one washer and dryer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r364349863-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>364349863</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty good place. </t>
+  </si>
+  <si>
+    <t>The hotel was pretty good. Currently being renovated. Entrance in and out of the hotel was a little quirky. Elevators take you to 2nd floor check-in. I like that there is so much shopping within walking distance of the hotel. (The hotel is located in a mixed use development)</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r330506369-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -702,6 +1029,42 @@
     <t>Stayed for 2 weeks for business.Very helpful staff, Ashley at the front desk is professional and very helpful.Yvette &amp; Victoria take care of you like a loving mother would every morning at breakfast.Walking distance to several shops and eateries, Pearland Town Center, make this an overall great place to stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r313365630-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>313365630</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay in Pearland</t>
+  </si>
+  <si>
+    <t>Great hotel located near the Pearland Town Center.  It was a little odd that you have to take the elevator up to the second floor to check in.  But, once checked in, it was easy to maneuver through the hotel.  We had a nice king size room.  I've since gone to another Courtyard and realize that the room style seemed to be standard configuration for a king room.We have a view that looked out toward the mall area.  We were on a higher floor so I was able to get a good view of the area.  The hotel is close to EVERYTHING!!!!  You can walk to shops and restaurants but if you feel like a quick drive, there are so many more things on the other side of the freeway. Perfect location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Great hotel located near the Pearland Town Center.  It was a little odd that you have to take the elevator up to the second floor to check in.  But, once checked in, it was easy to maneuver through the hotel.  We had a nice king size room.  I've since gone to another Courtyard and realize that the room style seemed to be standard configuration for a king room.We have a view that looked out toward the mall area.  We were on a higher floor so I was able to get a good view of the area.  The hotel is close to EVERYTHING!!!!  You can walk to shops and restaurants but if you feel like a quick drive, there are so many more things on the other side of the freeway. Perfect location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r312347385-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>312347385</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a great experience at this hotel. Was here for business and the staff was very helpful and courteous. Every morning for breakfast I was created with a smile from the staff and welcomed especially by Iveht working the breakfast area. Rooms are clean and nice and the town center it sits in is perfect to walk around and grab food or shop. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r311046521-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -717,9 +1080,6 @@
     <t>This is a good location especially if you travel solo. Lots in walking distance for restaurant or shopping. Nice staff. Clean. Happy hour too. You can order pizza at the bar. You have to figure out how to get around to the back to park but once you do it's a breeze. Close to all freeways and Tolls to ease the pain of city commute. MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded September 17, 2015</t>
   </si>
   <si>
@@ -762,7 +1122,43 @@
     <t>Only stayed one night but the room was nice and what you expect from a Courtyard.  The location was great as there were several places to eat all within walking distance.  Husband had the breakfast and said it was fine but not sure it was worth the $</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r297997515-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>297997515</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>As close to a home on the road as it gets....</t>
+  </si>
+  <si>
+    <t>Over the last 6 years, I've stayed at this hotel over 100 nights for business travel.  The hotel is well maintained, the staff is exceptional and gets to know you.  It is as close as a "home on the road" as it gets.  The location is away from the hustle of Houston.  There is every kind of shopping and restaurant imaginable in walking or short ride distance.  Gary and his staff take good care of folks... bottom line.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r296459807-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>296459807</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Excellent Customer Care and a Great Place to Stay for Frequent Travelers</t>
+  </si>
+  <si>
+    <t>I am a frequent visitor of the Marriott Courtyard in Pearland, Texas.I am travel extensively and stay at many high end hotels.  However, the service I receive NONE Is better than what I receive at the Courtyard Marriott in Pearland, Texas.I appreciate the customer service I receive at the Pearland location and want to personally thank the staff for the hard work and customer care they provide to me on a recurring basis.  My company is based near the Pearland, Texas location so I visit this location often.  The General Manager, Gary Shepherd, and his team do an excellent job of making sure that every visit is one in which I feel like I am “home” and a part of the family.  I cannot tell you how much I enjoy staying in this location and I look forward to each and every visit.I am have an active role in customer service and engagement with my organization.  The Pearland team and Gary truly embody a customer service spirit and I am so glad to be a part of the Marriott family!  I take many of the examples of customer care from this team back to my organization.Let me just say thank you again for all your organization to make sure I receive great customer care!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I am a frequent visitor of the Marriott Courtyard in Pearland, Texas.I am travel extensively and stay at many high end hotels.  However, the service I receive NONE Is better than what I receive at the Courtyard Marriott in Pearland, Texas.I appreciate the customer service I receive at the Pearland location and want to personally thank the staff for the hard work and customer care they provide to me on a recurring basis.  My company is based near the Pearland, Texas location so I visit this location often.  The General Manager, Gary Shepherd, and his team do an excellent job of making sure that every visit is one in which I feel like I am “home” and a part of the family.  I cannot tell you how much I enjoy staying in this location and I look forward to each and every visit.I am have an active role in customer service and engagement with my organization.  The Pearland team and Gary truly embody a customer service spirit and I am so glad to be a part of the Marriott family!  I take many of the examples of customer care from this team back to my organization.Let me just say thank you again for all your organization to make sure I receive great customer care!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r296361326-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
@@ -771,18 +1167,12 @@
     <t>296361326</t>
   </si>
   <si>
-    <t>08/06/2015</t>
-  </si>
-  <si>
     <t>One of the best kept secret in Houston- Pearland Courtyard</t>
   </si>
   <si>
     <t>They are the best in keeping guests feel like home away from home. Everyone from management to housekeeping are always looking for ways to care for the guests with a personal touch. I am a Platinum Elite member meaning I sleep at hotel more than I sleep at my house. I could stay any full service Marriott in Houston but I come back here every time for almost 5 years.They remember your name, the names of your family if you shared with them and ask about them. I love it and will recommend this hotel to anyone any day.</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r289349223-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -822,9 +1212,6 @@
     <t>I stayed in this hotel for over 2 weeks while in town for work.  The location was nice.  No specific hotel parking so mall patrons seem to park closest to the hotel entrance.  My room was quite small and no upgrade was offered for being a platinum member.  No welcome gift or acknowledgement was also noted.  It is still disappointing that the courtyard no longer has complimentary breakfast, and the price for what is now offered is ridiculous.  My biggest complaint was the work being done to paint the exteriror of the hotel.  I had to keep my curtains closed as i had workers on scaffolding right outside.  Then my window was covered with plastic for 3 days so i couldnt even seen outside.  Some notice of this would have been nice as i needed to do some work from my room and the noise from the equipment was constant.  I would probably only stay here again for the location.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded June 26, 2015</t>
   </si>
   <si>
@@ -834,6 +1221,51 @@
     <t>I stayed in this hotel for over 2 weeks while in town for work.  The location was nice.  No specific hotel parking so mall patrons seem to park closest to the hotel entrance.  My room was quite small and no upgrade was offered for being a platinum member.  No welcome gift or acknowledgement was also noted.  It is still disappointing that the courtyard no longer has complimentary breakfast, and the price for what is now offered is ridiculous.  My biggest complaint was the work being done to paint the exteriror of the hotel.  I had to keep my curtains closed as i had workers on scaffolding right outside.  Then my window was covered with plastic for 3 days so i couldnt even seen outside.  Some notice of this would have been nice as i needed to do some work from my room and the noise from the equipment was constant.  I would probably only stay here again for the location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r275405514-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>275405514</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel  and close to every you need and want.</t>
+  </si>
+  <si>
+    <t>Staff was very nice and helpful. Very nice rooms, clean and very modern. Shopping is just an elevator ride away since this hotel is located in the shopping center. Plenty of restaurants near by and shops. Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r270951249-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>270951249</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Best Hotel in Pearland/Houston Area</t>
+  </si>
+  <si>
+    <t>This review is a bit delayed but here goes.. My family of 5 stayed at this hotel for a total of 51 nights (Sept. 17th to Nov. 7th 2014) We moved from NJ to Pearland TX and needed a place to live in while we were house hunting. The hotel is in the school district we wanted for our kids, it is in one of the safest cities in TX and is only a few minutes drive to the development where we wanted to buy (and eventually bought) our first house in TX. 
+This hotel is less than 20 minutes drive to the Texas Medical Center where my wife works and Sugarland where I work. It is located within the Pearland Town Center which makes everything you need for a long stay very, very accessible. There are lots of restaurants and bars and shops and fast food places that are literally only a few steps away. It is next door to Macy's. Strolls in the town center is very safe even for our Kids (18, 11 and 3).
+The hotel is very well maintained. The swimming pool is very clean and the hot tub by the pool area is definitely a plus. My wife and I would soak in it on weekends while the kids played by the pool. We even celebrated our daughter's 3rd birthday by the pool area.
+The room we got was big even for a family...This review is a bit delayed but here goes.. My family of 5 stayed at this hotel for a total of 51 nights (Sept. 17th to Nov. 7th 2014) We moved from NJ to Pearland TX and needed a place to live in while we were house hunting. The hotel is in the school district we wanted for our kids, it is in one of the safest cities in TX and is only a few minutes drive to the development where we wanted to buy (and eventually bought) our first house in TX. This hotel is less than 20 minutes drive to the Texas Medical Center where my wife works and Sugarland where I work. It is located within the Pearland Town Center which makes everything you need for a long stay very, very accessible. There are lots of restaurants and bars and shops and fast food places that are literally only a few steps away. It is next door to Macy's. Strolls in the town center is very safe even for our Kids (18, 11 and 3).The hotel is very well maintained. The swimming pool is very clean and the hot tub by the pool area is definitely a plus. My wife and I would soak in it on weekends while the kids played by the pool. We even celebrated our daughter's 3rd birthday by the pool area.The room we got was big even for a family of 5. We had 2 big beds (kings or queens?), a sofa sleeper and a cot. We had a lot of luggage but the room was big enough even for that. We never felt crowded during our very long stay. The room had a work desk, coffee table, fridge, microwave and an excellent view of a small lake and the pool from our window. Our room was cleaned and the sheets replaced every day by housekeeping (thanks Samantha!).The gym was very useful for my teenage daughter and son. The business center with its computers was always available for me during my home search and communication with our realtor and lender. The balcony with its seating areas was very nice for catching some fresh air in the evenings and having our morning coffee. The free breakfast was always good and there were always several choices.  Having said all that about the location and the hotel itself, nothing beats the warmth and hospitality of the staff. We became friends with everyone and they were all ALWAYS more than happy to accommodate our requests. They would even help with my son's home work! Our stay was a very enjoyable one and we have been recommending this hotel to all our friends and relatives who plan to visit the Houston area.I will refrain from mentioning individual names for fear of forgetting one of you but you guys know who you are and we sincerely thank you for the kindness and friendship. You all make this hotel the best place to stay in Pearland.If you are looking for a good place to stay in Pearland or the Houston area, you can not go wrong with this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This review is a bit delayed but here goes.. My family of 5 stayed at this hotel for a total of 51 nights (Sept. 17th to Nov. 7th 2014) We moved from NJ to Pearland TX and needed a place to live in while we were house hunting. The hotel is in the school district we wanted for our kids, it is in one of the safest cities in TX and is only a few minutes drive to the development where we wanted to buy (and eventually bought) our first house in TX. 
+This hotel is less than 20 minutes drive to the Texas Medical Center where my wife works and Sugarland where I work. It is located within the Pearland Town Center which makes everything you need for a long stay very, very accessible. There are lots of restaurants and bars and shops and fast food places that are literally only a few steps away. It is next door to Macy's. Strolls in the town center is very safe even for our Kids (18, 11 and 3).
+The hotel is very well maintained. The swimming pool is very clean and the hot tub by the pool area is definitely a plus. My wife and I would soak in it on weekends while the kids played by the pool. We even celebrated our daughter's 3rd birthday by the pool area.
+The room we got was big even for a family...This review is a bit delayed but here goes.. My family of 5 stayed at this hotel for a total of 51 nights (Sept. 17th to Nov. 7th 2014) We moved from NJ to Pearland TX and needed a place to live in while we were house hunting. The hotel is in the school district we wanted for our kids, it is in one of the safest cities in TX and is only a few minutes drive to the development where we wanted to buy (and eventually bought) our first house in TX. This hotel is less than 20 minutes drive to the Texas Medical Center where my wife works and Sugarland where I work. It is located within the Pearland Town Center which makes everything you need for a long stay very, very accessible. There are lots of restaurants and bars and shops and fast food places that are literally only a few steps away. It is next door to Macy's. Strolls in the town center is very safe even for our Kids (18, 11 and 3).The hotel is very well maintained. The swimming pool is very clean and the hot tub by the pool area is definitely a plus. My wife and I would soak in it on weekends while the kids played by the pool. We even celebrated our daughter's 3rd birthday by the pool area.The room we got was big even for a family of 5. We had 2 big beds (kings or queens?), a sofa sleeper and a cot. We had a lot of luggage but the room was big enough even for that. We never felt crowded during our very long stay. The room had a work desk, coffee table, fridge, microwave and an excellent view of a small lake and the pool from our window. Our room was cleaned and the sheets replaced every day by housekeeping (thanks Samantha!).The gym was very useful for my teenage daughter and son. The business center with its computers was always available for me during my home search and communication with our realtor and lender. The balcony with its seating areas was very nice for catching some fresh air in the evenings and having our morning coffee. The free breakfast was always good and there were always several choices.  Having said all that about the location and the hotel itself, nothing beats the warmth and hospitality of the staff. We became friends with everyone and they were all ALWAYS more than happy to accommodate our requests. They would even help with my son's home work! Our stay was a very enjoyable one and we have been recommending this hotel to all our friends and relatives who plan to visit the Houston area.I will refrain from mentioning individual names for fear of forgetting one of you but you guys know who you are and we sincerely thank you for the kindness and friendship. You all make this hotel the best place to stay in Pearland.If you are looking for a good place to stay in Pearland or the Houston area, you can not go wrong with this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r270203465-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -894,9 +1326,6 @@
     <t>My last two visits to the Houston area I've had the pleasure of staying here. Couryard is a great Marriott brand and the location to great shopping, restuarants and easy access to highways. Perfect for a weekend getway or even longer. Definitely looking forward to my next stay. The staff were friendly and helpful both stays and was always willing to accommodate my request. And the lobby bar is definitely a plus.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -907,6 +1336,54 @@
   </si>
   <si>
     <t>My last two visits to the Houston area I've had the pleasure of staying here. Couryard is a great Marriott brand and the location to great shopping, restuarants and easy access to highways. Perfect for a weekend getway or even longer. Definitely looking forward to my next stay. The staff were friendly and helpful both stays and was always willing to accommodate my request. And the lobby bar is definitely a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r255881922-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>255881922</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place! </t>
+  </si>
+  <si>
+    <t>Ashley cheerfully greeted me when I came in the lobby after a short 499 mile drive to get here for work matters. The room is great and the housekeeping staff obviously take pride in their job.  I actually look forward to staying here for the week and won't complain about coming back to this property. MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Ashley cheerfully greeted me when I came in the lobby after a short 499 mile drive to get here for work matters. The room is great and the housekeeping staff obviously take pride in their job.  I actually look forward to staying here for the week and won't complain about coming back to this property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r247811235-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>247811235</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Decent rooms pleasant stay</t>
+  </si>
+  <si>
+    <t>This hotel has got very nice and large rooms. The hotel is located inside the shopping mall called town center. You can have a pleasant stay here. I have stayed in this hotel for 8 weeks and I had almost no issues. The only problem I have seen was that the gym was so small. You may only do some cardio and that's it. You should also note that there is almost no taxi available in that neighborhood so you better plan to rent a car as there is absolutely no public transportation at this part of houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has got very nice and large rooms. The hotel is located inside the shopping mall called town center. You can have a pleasant stay here. I have stayed in this hotel for 8 weeks and I had almost no issues. The only problem I have seen was that the gym was so small. You may only do some cardio and that's it. You should also note that there is almost no taxi available in that neighborhood so you better plan to rent a car as there is absolutely no public transportation at this part of houston.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r242350970-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
@@ -992,6 +1469,60 @@
     <t>As others have mentioned, the hotel is starting to show its age. This starts with the little things like low water pressure on the higher floors. Worst of all are the TV refurbishments. The new LG 320LY570H models are locked down in hotel mode and set to the lowest possible power setting. What this means... well, as soon as you are tuned in to a channel the TV will start to dim. To a point that watching it with the lights on is impossible, and troublesome even when the lights are off.I have had to deal with it twice, switched rooms a couple of other times and will now just take my business elsewhere.Lack of good courtesy coffee and breakfast options is another black eye. But that is an overall branding issue for Marriott.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r222873178-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>222873178</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Nice, Clean hotel for a last minute stop.</t>
+  </si>
+  <si>
+    <t>Our AC wasn't working so we decided to stay at a hotel. We picked Courtyard and glad we did. The hotel was clean, quiet and the staff was nice.  The room was a good size and clean. The bathroom tiles are starting to how their age, but i think if the management keeps it up it will be fine. I wished the breakfast was included into the price, but an extra $10 isn't too bad either. The hotel was pretty full, but very quiet.We live in pearland and town center is where everything is and Courtyard is in the heart of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Our AC wasn't working so we decided to stay at a hotel. We picked Courtyard and glad we did. The hotel was clean, quiet and the staff was nice.  The room was a good size and clean. The bathroom tiles are starting to how their age, but i think if the management keeps it up it will be fine. I wished the breakfast was included into the price, but an extra $10 isn't too bad either. The hotel was pretty full, but very quiet.We live in pearland and town center is where everything is and Courtyard is in the heart of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r219791357-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>219791357</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Nice clean good staff and close to everything</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights, was there for our JW regional convention. The room was clean smelled great and the staff was helpful. It is located near everything we needed HEB, Macy's, Walgreens Pizza, Burgers Steak anything you needed was close by. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights, was there for our JW regional convention. The room was clean smelled great and the staff was helpful. It is located near everything we needed HEB, Macy's, Walgreens Pizza, Burgers Steak anything you needed was close by. I would stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r218369395-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1007,9 +1538,6 @@
     <t>This hotel is a fantastic blend of good amenities and reasonable price.  The location is super convenient to everywhere we went in Houston, and it wasn't the horrible downtown traffic we encountered to the north.  It is set just in back of an open shopping center, which was great for evenings and anytime we realized we forgot something.  We walked to dinner all three nights we stayed here, plenty of selection right in the shopping district.  This hotel offers FREE wifi which worked very well, and free parking.  We ate breakfast twice, and it wasn't 5 star but certainly adequate.  The room was plenty spacious for the two of us on a 3 night stay.  We will most definitely be staying here again when we are in town.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded August 1, 2014</t>
   </si>
   <si>
@@ -1064,6 +1592,71 @@
     <t>This has been my second visit to the Courtyard. Had an excellent stay, staff including breakfast and reception , In fact all I came into contact with were courteous and obliging when problems occured.The hotel is well situated within the Pearland shopping area. A number of restaurants within walking distance, a couple had closed since my last visit in June 2013. My room was of a good standard with everything I needed.The Breakfast buffet style is of a high standard with fresh fruit cereal and a cooked breakfast if this took your fancy.The hotel is approximately 40 mins drive from Houston and 50 mins from the international airport.One issue I did have with an abusive guest during the night was dealt with efficiently by the night porter and offered to move rooms which I accepted .The hotel offers a very good service for the business traveller including arranging cab transfers to the airport.Would certainly use this hotel again on my next visit to the Pearland area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r197519402-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>197519402</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Fool me twice, shame on me.</t>
+  </si>
+  <si>
+    <t>Pros:
+*Free Parking/Wi-fi
+*Location (only if you need to be in Pearland or surrounding areas)
+*Nice little shopping area
+Cons:
+*Unprofessional, aloof staff
+*Cleanliness is definitely lacking
+I clearly have terrible luck with this hotel.  I visited several years ago and had a horrible experience. However, the Marriott staff that contacted me was responsive and apologetic enough that I decided due to the positive reviews and their response, I would give them another go. 
+Old habits clearly die hard.  Similar to my first visit, the aloof staff at this Marriott boggles the mind. The check-in process took FOREVER because the staff member was concentrating more on the disagreement with some other staff member rather than getting me checked in efficiently.   How unprofessional.  Your personal conversations/disagreements need to occur on your time, not when I am wanting to get to my room from my 4+ hour drive.   I can attribute her discourteous behavior to whatever was going on with that other staff member, but that's no reason to treat your customers poorly. Resolve your issues before dealing with customers.     Of course, there were no luggage carts, so I had to wait for someone to search the hotel for them. 
+Cleanliness:  The sheets had hair on them and the bathroom hasn't been truly cleaned lately. 
+Comfort:  The walls were so paper thin that I actually said, "Bless you" to the person in the adjoining room when they sneezed.  I could also hear...Pros:*Free Parking/Wi-fi*Location (only if you need to be in Pearland or surrounding areas)*Nice little shopping areaCons:*Unprofessional, aloof staff*Cleanliness is definitely lackingI clearly have terrible luck with this hotel.  I visited several years ago and had a horrible experience. However, the Marriott staff that contacted me was responsive and apologetic enough that I decided due to the positive reviews and their response, I would give them another go. Old habits clearly die hard.  Similar to my first visit, the aloof staff at this Marriott boggles the mind. The check-in process took FOREVER because the staff member was concentrating more on the disagreement with some other staff member rather than getting me checked in efficiently.   How unprofessional.  Your personal conversations/disagreements need to occur on your time, not when I am wanting to get to my room from my 4+ hour drive.   I can attribute her discourteous behavior to whatever was going on with that other staff member, but that's no reason to treat your customers poorly. Resolve your issues before dealing with customers.     Of course, there were no luggage carts, so I had to wait for someone to search the hotel for them. Cleanliness:  The sheets had hair on them and the bathroom hasn't been truly cleaned lately. Comfort:  The walls were so paper thin that I actually said, "Bless you" to the person in the adjoining room when they sneezed.  I could also hear the couple next door arguing bright and early sunday morning.  The A/C was loud, but I guess I prefer that than hearing my noisy neighbors.Misc.:  For a small hotel like this one, the elevators were ridiculously slow.  It always stops on the 2nd floor even if you are sliding your card. Overall: I  felt this hotel was overpriced considering the service and cleanliness. I expect a higher standard with Marriott. This hotels deserve really 1.5 stars but will get 2 stars for the location in pearland, free parking, and internet.  Pearland is in a location that would be an easy enough commute from other locations so I would say stay somewhere else until the staff issues and cleanliness are resolved.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Pros:
+*Free Parking/Wi-fi
+*Location (only if you need to be in Pearland or surrounding areas)
+*Nice little shopping area
+Cons:
+*Unprofessional, aloof staff
+*Cleanliness is definitely lacking
+I clearly have terrible luck with this hotel.  I visited several years ago and had a horrible experience. However, the Marriott staff that contacted me was responsive and apologetic enough that I decided due to the positive reviews and their response, I would give them another go. 
+Old habits clearly die hard.  Similar to my first visit, the aloof staff at this Marriott boggles the mind. The check-in process took FOREVER because the staff member was concentrating more on the disagreement with some other staff member rather than getting me checked in efficiently.   How unprofessional.  Your personal conversations/disagreements need to occur on your time, not when I am wanting to get to my room from my 4+ hour drive.   I can attribute her discourteous behavior to whatever was going on with that other staff member, but that's no reason to treat your customers poorly. Resolve your issues before dealing with customers.     Of course, there were no luggage carts, so I had to wait for someone to search the hotel for them. 
+Cleanliness:  The sheets had hair on them and the bathroom hasn't been truly cleaned lately. 
+Comfort:  The walls were so paper thin that I actually said, "Bless you" to the person in the adjoining room when they sneezed.  I could also hear...Pros:*Free Parking/Wi-fi*Location (only if you need to be in Pearland or surrounding areas)*Nice little shopping areaCons:*Unprofessional, aloof staff*Cleanliness is definitely lackingI clearly have terrible luck with this hotel.  I visited several years ago and had a horrible experience. However, the Marriott staff that contacted me was responsive and apologetic enough that I decided due to the positive reviews and their response, I would give them another go. Old habits clearly die hard.  Similar to my first visit, the aloof staff at this Marriott boggles the mind. The check-in process took FOREVER because the staff member was concentrating more on the disagreement with some other staff member rather than getting me checked in efficiently.   How unprofessional.  Your personal conversations/disagreements need to occur on your time, not when I am wanting to get to my room from my 4+ hour drive.   I can attribute her discourteous behavior to whatever was going on with that other staff member, but that's no reason to treat your customers poorly. Resolve your issues before dealing with customers.     Of course, there were no luggage carts, so I had to wait for someone to search the hotel for them. Cleanliness:  The sheets had hair on them and the bathroom hasn't been truly cleaned lately. Comfort:  The walls were so paper thin that I actually said, "Bless you" to the person in the adjoining room when they sneezed.  I could also hear the couple next door arguing bright and early sunday morning.  The A/C was loud, but I guess I prefer that than hearing my noisy neighbors.Misc.:  For a small hotel like this one, the elevators were ridiculously slow.  It always stops on the 2nd floor even if you are sliding your card. Overall: I  felt this hotel was overpriced considering the service and cleanliness. I expect a higher standard with Marriott. This hotels deserve really 1.5 stars but will get 2 stars for the location in pearland, free parking, and internet.  Pearland is in a location that would be an easy enough commute from other locations so I would say stay somewhere else until the staff issues and cleanliness are resolved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r188467491-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>188467491</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>Pre Christmas trip</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 6 days prior to Christmas.  Was our first trip to this area.  Great property, great location in the center of the shopping mecca of Pearland.  And very reasonably priced. Walk to everything.  Parking free and very close to hotel entrance.  Breakfast buffet with cooked to order also.  The staff at the breakfast were extremely pleasant every day.  Will definitely stay here again on future trips.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r186388151-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1729,57 @@
     <t>You have to have a good reason to come to Pearland as there's not much there except housing and stores. That being said, this place is handy as it's right in the middle of Pearland Town Centre (which is essentially a mall without a roof). Shopping is right outside the door, parking is easy just round the back.The rooms are exactly what you expect from this class of hotel, clean and simple but spacious. The lobby is on the 2nd floor above the stores and has the expected breakfast facilities and vending machines, but the usual Cafe / Bar never seemed to be open here which was odd. That didn't concern me too much as you can walk to a selection of bars and eateries in the town centre and there are more just a short drive away. If I ever have to visit that region again I'd definately use this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r180228178-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>180228178</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Perfect location: close to tons of shopping and restaurants &amp; just a short drive to downtown Houston (with less traffic). This is a great option if you want close to everything and a nice, clean hotel but don't want to stay downtown Houston. Would highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Perfect location: close to tons of shopping and restaurants &amp; just a short drive to downtown Houston (with less traffic). This is a great option if you want close to everything and a nice, clean hotel but don't want to stay downtown Houston. Would highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r178602661-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>178602661</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel - typical Courtyard</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one weekend night because we were in the area for dinner.  We only live about 45 minutes from this hotel, but have friends who live in Pearland and decided to just make an evening of it.  We checked in around 1 am and left around 10 am, so we weren't here very long, but it was a comfortable stay.  The second story lobby in the shopping center was a little odd, but the check-in was quick and efficient.  The room was clean and looked consistent with other Courtyard by Marriott hotels...same decorations, etc.The only minor complaint I have about this hotel is that the walls are very thin.  I woke up to a crying baby in the room next to us!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>HotelPTC, General Manager at Courtyard by Marriott Houston Pearland, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one weekend night because we were in the area for dinner.  We only live about 45 minutes from this hotel, but have friends who live in Pearland and decided to just make an evening of it.  We checked in around 1 am and left around 10 am, so we weren't here very long, but it was a comfortable stay.  The second story lobby in the shopping center was a little odd, but the check-in was quick and efficient.  The room was clean and looked consistent with other Courtyard by Marriott hotels...same decorations, etc.The only minor complaint I have about this hotel is that the walls are very thin.  I woke up to a crying baby in the room next to us!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r175096327-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1217,6 +1861,42 @@
     <t>This is a great hotel close enough to Houston for all business needs but yet far enough away from the hustle and bustle to actually relax. Plenty of parking. Excellent shopping as it is located right in the middle of a major shopping mall. Walking distance to good places to eat, have a cold adult beverage, get a mani-pedi and even get your hair cut and colored! Traveling solo mostly for business, I look for a place I can feel safe at and this is it. The staff is great. I know all by name and have never had any problems. Very relaxing business hotel. Any place that would send sliced oranges up to my room is number one in my book!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r153727404-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>153727404</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Best kept secret....</t>
+  </si>
+  <si>
+    <t>I literally stumbled upon this hotel while looking for a place to eat. It is an upscale Courtyard, mulit-story and situated in the middle of a major shopping and dining destination just outside of Houston in Pearland, TX. Very easy to locate (just a couple blocks west of Hwy 288 at the 518 exit).Plenty of parking and walking distance to numerous shopping, dining, drinking and dessert establishments.Room was comfortable with absolutely no problems. Check-in and check-out was excellent with a very friendly staff. Highly recommended if you need accomodations in this area.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r149946620-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>149946620</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>I have stayed here twice with decent results</t>
+  </si>
+  <si>
+    <t>Last night was my second time staying here. I am currently pregnant and occasionally I must leave my home because of a rennovation nightmare that we are living through. My husband and I chose this hotel as it is very close to our current nighmare of a home. The hotel is very clean and I feel safe there even by myself as you must have a room key to get to any of the floors other than the lobby. The only major complaint is that both times I have stayed there I have noticed a smell in the rooms. I believe it may be the detergents that they use to clean and to wash the linens with. It is stronger than normal and there isn't exactly any way to air out the room. I had no choice in both instances to leave at least the fan on the AC unit running continuously. It seemed to help a bit but definitely not enough. The smell is quite strong in that my coworker today could smell it on the clothing I brought with me for work. I would definitely request that they find alternative, less offensive cleaning products to use in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Last night was my second time staying here. I am currently pregnant and occasionally I must leave my home because of a rennovation nightmare that we are living through. My husband and I chose this hotel as it is very close to our current nighmare of a home. The hotel is very clean and I feel safe there even by myself as you must have a room key to get to any of the floors other than the lobby. The only major complaint is that both times I have stayed there I have noticed a smell in the rooms. I believe it may be the detergents that they use to clean and to wash the linens with. It is stronger than normal and there isn't exactly any way to air out the room. I had no choice in both instances to leave at least the fan on the AC unit running continuously. It seemed to help a bit but definitely not enough. The smell is quite strong in that my coworker today could smell it on the clothing I brought with me for work. I would definitely request that they find alternative, less offensive cleaning products to use in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r140722833-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1271,6 +1951,39 @@
     <t>I really enjoyed staying at this hotel.  It was very clean and the staff was extremely helpful and nice.  The Marriott is right on the mall area.  Excellent location for shopping.  Everything you need is so conveniently close.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r132689356-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>132689356</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>Super Convenient Shopping and Dining, Friendly Staff</t>
+  </si>
+  <si>
+    <t>This location is great. It's in the newest area of Pearland. Shopping and dining is just a walk around the corner of the hotel. This is a work, play, live development. There are apartments/condos located in the shopping district. The hotel was well maintained, clean and the staff was very friendly. This staff was the best I've seen in a long time of any hotels that I've stayed in the last year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r132624355-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>132624355</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Excellent accommodation for a business trip</t>
+  </si>
+  <si>
+    <t>I am specifying business trip because otherwise there is little reason to be there: the area is about 50 miles south of Houston, easily accessible but not overly relevant as a tourist destination. There are however many reasons to be there on a business trip, and the hotel is located in a fairly large shopping area right off highway 288, at the periphery of Pearland. There are several restaurants and substantial shopping opportunities in the immediate vicinity. The hotel itself is great, the rooms are very clean and smell clean, and by this I do not mean smell like cleaner. The air conditioning is loud if you crank it up, but you will survive on the quieter low fan setting. Nice, large bathrooms, decent water pressure for the shower, outstanding service at the reception desk - real Texas hospitality, I reckon. The free wired and wireless Internet connection is fairly fast in the rooms, as well as the business center on the second level. There is also a fitness facility. The breakfast buffet is considerably above average in both variety and quality, but the "breakfast included" option is a bit more expensive. Well worth it, highly recommended. Overall, the hotel is not inexpensive, but well worth the money. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am specifying business trip because otherwise there is little reason to be there: the area is about 50 miles south of Houston, easily accessible but not overly relevant as a tourist destination. There are however many reasons to be there on a business trip, and the hotel is located in a fairly large shopping area right off highway 288, at the periphery of Pearland. There are several restaurants and substantial shopping opportunities in the immediate vicinity. The hotel itself is great, the rooms are very clean and smell clean, and by this I do not mean smell like cleaner. The air conditioning is loud if you crank it up, but you will survive on the quieter low fan setting. Nice, large bathrooms, decent water pressure for the shower, outstanding service at the reception desk - real Texas hospitality, I reckon. The free wired and wireless Internet connection is fairly fast in the rooms, as well as the business center on the second level. There is also a fitness facility. The breakfast buffet is considerably above average in both variety and quality, but the "breakfast included" option is a bit more expensive. Well worth it, highly recommended. Overall, the hotel is not inexpensive, but well worth the money. Highly recommended.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r131136301-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +2038,47 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r126742755-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>126742755</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel in a great location!</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in the heart of the Pearland Town Center in Houston.  I was here for 6 days on business.  The front desk staff was very friendly and helpful.  I requested a microwave in my room and they were more than accommodating to ensure this was in my room when I brought my luggage in.  The room was a good size and the amenities were very modern.  The room and bathroom were nice and clean and the bed was very comfortable.  I liked how the flat-screen TV swiveled so you could watch it in bed or at the desk.  I had a room facing the north, which had a view of downtown Houston.  The outdoor shopping center was nice, but it was all stores I have at home.  There is a sports bar and restaurant just steps from the hotel.  There are also a few other restaurants within walking distance (check out BJ's Brewhouse and try the ahi tuna appetizer...fantastic).
+Right across the main street into the town center are a few other shops, including an H-E-B Plus grocery store.  This hotel is very close to the highway, but you don't hear the highway traffic, which is a bonus.  The only thing I didn't particularly care for was the fact that the lobby is on the second floor.  It isn't that big of a deal, but you have to take the elevator up one floor to...This is a very nice hotel in the heart of the Pearland Town Center in Houston.  I was here for 6 days on business.  The front desk staff was very friendly and helpful.  I requested a microwave in my room and they were more than accommodating to ensure this was in my room when I brought my luggage in.  The room was a good size and the amenities were very modern.  The room and bathroom were nice and clean and the bed was very comfortable.  I liked how the flat-screen TV swiveled so you could watch it in bed or at the desk.  I had a room facing the north, which had a view of downtown Houston.  The outdoor shopping center was nice, but it was all stores I have at home.  There is a sports bar and restaurant just steps from the hotel.  There are also a few other restaurants within walking distance (check out BJ's Brewhouse and try the ahi tuna appetizer...fantastic).Right across the main street into the town center are a few other shops, including an H-E-B Plus grocery store.  This hotel is very close to the highway, but you don't hear the highway traffic, which is a bonus.  The only thing I didn't particularly care for was the fact that the lobby is on the second floor.  It isn't that big of a deal, but you have to take the elevator up one floor to check in.  I guess it was built that way as a safety feature (don't want random people from the shopping area just walking in whenever they want).  I sat out by the pool one day for about an hour, and it is a nice area.I will definitely be staying at this hotel again if I come back to Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in the heart of the Pearland Town Center in Houston.  I was here for 6 days on business.  The front desk staff was very friendly and helpful.  I requested a microwave in my room and they were more than accommodating to ensure this was in my room when I brought my luggage in.  The room was a good size and the amenities were very modern.  The room and bathroom were nice and clean and the bed was very comfortable.  I liked how the flat-screen TV swiveled so you could watch it in bed or at the desk.  I had a room facing the north, which had a view of downtown Houston.  The outdoor shopping center was nice, but it was all stores I have at home.  There is a sports bar and restaurant just steps from the hotel.  There are also a few other restaurants within walking distance (check out BJ's Brewhouse and try the ahi tuna appetizer...fantastic).
+Right across the main street into the town center are a few other shops, including an H-E-B Plus grocery store.  This hotel is very close to the highway, but you don't hear the highway traffic, which is a bonus.  The only thing I didn't particularly care for was the fact that the lobby is on the second floor.  It isn't that big of a deal, but you have to take the elevator up one floor to...This is a very nice hotel in the heart of the Pearland Town Center in Houston.  I was here for 6 days on business.  The front desk staff was very friendly and helpful.  I requested a microwave in my room and they were more than accommodating to ensure this was in my room when I brought my luggage in.  The room was a good size and the amenities were very modern.  The room and bathroom were nice and clean and the bed was very comfortable.  I liked how the flat-screen TV swiveled so you could watch it in bed or at the desk.  I had a room facing the north, which had a view of downtown Houston.  The outdoor shopping center was nice, but it was all stores I have at home.  There is a sports bar and restaurant just steps from the hotel.  There are also a few other restaurants within walking distance (check out BJ's Brewhouse and try the ahi tuna appetizer...fantastic).Right across the main street into the town center are a few other shops, including an H-E-B Plus grocery store.  This hotel is very close to the highway, but you don't hear the highway traffic, which is a bonus.  The only thing I didn't particularly care for was the fact that the lobby is on the second floor.  It isn't that big of a deal, but you have to take the elevator up one floor to check in.  I guess it was built that way as a safety feature (don't want random people from the shopping area just walking in whenever they want).  I sat out by the pool one day for about an hour, and it is a nice area.I will definitely be staying at this hotel again if I come back to Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r124907995-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>124907995</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Very nice location and hotel. You will not be disappointed!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a few nights in Feb 2012. It was great. Pros:1. The hotel is part of a open-air shopping complex in Pearland.2. Very close to the highway. Easy to get on and off.3. Really nice restaurants within walking distance.4. Gym is very roomy5. They have a really nice seating area and even a balcony for lounging around.6. Really comfy beds and pillows. Thats what it's all about!Cons: 1. Hotel desk is on the 2nd floor. Not really a CON, but odd all the same.2. They put me in a very nice suite, but the internet was almost stagnate it was so slow.3. Outdoor pool is basically in the parking lot. All function and no form.I would surely stay here again if given the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a few nights in Feb 2012. It was great. Pros:1. The hotel is part of a open-air shopping complex in Pearland.2. Very close to the highway. Easy to get on and off.3. Really nice restaurants within walking distance.4. Gym is very roomy5. They have a really nice seating area and even a balcony for lounging around.6. Really comfy beds and pillows. Thats what it's all about!Cons: 1. Hotel desk is on the 2nd floor. Not really a CON, but odd all the same.2. They put me in a very nice suite, but the internet was almost stagnate it was so slow.3. Outdoor pool is basically in the parking lot. All function and no form.I would surely stay here again if given the chance.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r123995392-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1376,6 +2130,39 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r119493491-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>119493491</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>Reliable and close to shopping and restaurants</t>
+  </si>
+  <si>
+    <t>I visit Pearland approx 1 week per month and always stay here. The staff are friendly, there is a decent breakfast (it's not free, but is included in my corporate rate) and there are plenty of restaurants and shops within 5 minutes walk.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r117805303-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>117805303</t>
+  </si>
+  <si>
+    <t>09/07/2011</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location!</t>
+  </si>
+  <si>
+    <t>This hotel was very nice for the money! It was very clean and the staff was friendly and knowledgeable. It was in a great location right by several restaurants and lots of shopping. It felt like a very safe and friendly place. I would stay here again. The only issue we had is there are only 2 elevators and they stop on the lobby level and open every single time regardless if you pushed that button or not. Maybe a safety feature.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r117326355-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1430,6 +2217,39 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r103328762-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>103328762</t>
+  </si>
+  <si>
+    <t>04/08/2011</t>
+  </si>
+  <si>
+    <t>Great stay, except housekeeping</t>
+  </si>
+  <si>
+    <t>We staying at the Pearland Courtyard during the Final Four in Houston.  The location was very good, a few miles from downtown, part of a growing shopping area, and plenty of restaurants.   Room - the new style Courtyard room.  It was very nice- - the only issues were housekeeping and the amount of towels/washcloths.  I appreciate being "green" but not vacuming a room during a 4 night stay, inconsistency on emptying trash, and two threadbare washcloths and two thin towels.Front Desk - excellent customer service, directions provided and welcoming.Breakfast- typical price but lower than expected quality.  The items on the buffet did not look appetizing, they said "sorry we don't make eggs to order any more" - so $9.95 for a yogurt and piece of toast is pretty high, even in a large city.Overall- I would stay here again for location, bed comfort, and air conditioning effectiveness.MoreShow less</t>
+  </si>
+  <si>
+    <t>We staying at the Pearland Courtyard during the Final Four in Houston.  The location was very good, a few miles from downtown, part of a growing shopping area, and plenty of restaurants.   Room - the new style Courtyard room.  It was very nice- - the only issues were housekeeping and the amount of towels/washcloths.  I appreciate being "green" but not vacuming a room during a 4 night stay, inconsistency on emptying trash, and two threadbare washcloths and two thin towels.Front Desk - excellent customer service, directions provided and welcoming.Breakfast- typical price but lower than expected quality.  The items on the buffet did not look appetizing, they said "sorry we don't make eggs to order any more" - so $9.95 for a yogurt and piece of toast is pretty high, even in a large city.Overall- I would stay here again for location, bed comfort, and air conditioning effectiveness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r102433636-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>102433636</t>
+  </si>
+  <si>
+    <t>04/01/2011</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>What a huge disappointment.  Biggest problem was the rattle-ly, noisy air conditioner unit in the room.  I had to practically take the darn thing apart to get it to quiet down to even be able to hear the TV.  2 hand towels and 2 wash cloths = not enoughFilthy carpets in elevatorsNot enough blankets on the bedThe one positive is the location--great for eating and shopping. I won't stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r79395471-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1481,7 +2301,40 @@
     <t>There were five of us girls who went down to Pearland for a shower, and the hotel was suprisingly nice, and the room was really big and clean and the staff was very friendly. Would definitly stay again.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r52700817-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>52700817</t>
+  </si>
+  <si>
+    <t>01/05/2010</t>
+  </si>
+  <si>
+    <t>Awesome weekend getaway</t>
+  </si>
+  <si>
+    <t>We only live about an hour and a half away, so it was a one night stay for us.  This is a perfect weekend getaway. You can spend a little and have a great time or you can shop 'til you drop. Whatever your pleasure is. One super plus is that you can have a great time and never have to get in the car once you get there. The first level of the hotel leads right into a mock town square. The stores are "mall stores" but it is set up like city blocks. You can shop a few, then go up to your room and rest. We did the shopping getaway and received a free gift card, free breakfast and were also given a discount at one of the restaurants in the shopping area when we showed our room card.  We had a teen with us, and that even turned out okay! Couples, well, you could use your gift card to go out for dinner,  have your free breakfast and just enjoy the hotel which is very clean, well decorated, and everything provided. I look forward to going again and I just got back!MoreShow less</t>
+  </si>
+  <si>
+    <t>We only live about an hour and a half away, so it was a one night stay for us.  This is a perfect weekend getaway. You can spend a little and have a great time or you can shop 'til you drop. Whatever your pleasure is. One super plus is that you can have a great time and never have to get in the car once you get there. The first level of the hotel leads right into a mock town square. The stores are "mall stores" but it is set up like city blocks. You can shop a few, then go up to your room and rest. We did the shopping getaway and received a free gift card, free breakfast and were also given a discount at one of the restaurants in the shopping area when we showed our room card.  We had a teen with us, and that even turned out okay! Couples, well, you could use your gift card to go out for dinner,  have your free breakfast and just enjoy the hotel which is very clean, well decorated, and everything provided. I look forward to going again and I just got back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r47255135-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>47255135</t>
+  </si>
+  <si>
+    <t>10/19/2009</t>
+  </si>
+  <si>
+    <t>Surprisingly nice</t>
+  </si>
+  <si>
+    <t>I didn't really know what to expect of a hotel built into a huge shopping area but it was great. Rooms were big, clean and modernly decorated. bathroom was a little too small but everything else was perfect. I didn't like that they wanted to charge $10 for each of us to have breakfast at their buffet though.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1165138-r44722351-Courtyard_by_Marriott_Houston_Pearland-Pearland_Texas.html</t>
@@ -2034,7 +2887,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2042,23 +2895,25 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2074,41 +2929,41 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -2117,13 +2972,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2139,7 +2994,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2148,49 +3003,35 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -2206,7 +3047,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2215,25 +3056,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2245,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -2267,7 +3108,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2276,43 +3117,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
         <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2328,7 +3173,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2337,43 +3182,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -2389,7 +3240,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2398,49 +3249,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2456,7 +3297,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2465,47 +3306,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -2521,7 +3358,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2530,25 +3367,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2560,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2582,7 +3419,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2591,25 +3428,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2621,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2643,7 +3480,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2652,49 +3489,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2710,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2719,49 +3550,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -2777,7 +3606,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2786,49 +3615,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2844,7 +3667,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2853,39 +3676,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -2901,7 +3734,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2910,47 +3743,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -2966,7 +3799,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2975,47 +3808,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -3031,7 +3860,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3040,49 +3869,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>192</v>
-      </c>
-      <c r="X18" t="s">
-        <v>193</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -3098,7 +3923,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3107,25 +3932,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3137,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -3159,7 +3984,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3168,25 +3993,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3198,13 +4023,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
@@ -3220,7 +4045,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3229,34 +4054,34 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="n">
         <v>5</v>
       </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>4</v>
@@ -3265,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -3287,7 +4112,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3296,43 +4121,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
@@ -3348,7 +4179,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3357,43 +4188,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -3409,7 +4244,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3418,34 +4253,32 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>4</v>
@@ -3453,10 +4286,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -3472,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3481,39 +4318,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
@@ -3529,52 +4376,48 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
         <v>249</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>250</v>
-      </c>
-      <c r="J26" t="s">
-        <v>251</v>
-      </c>
-      <c r="K26" t="s">
-        <v>252</v>
-      </c>
-      <c r="L26" t="s">
-        <v>253</v>
-      </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -3590,7 +4433,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3599,39 +4442,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
@@ -3647,58 +4498,58 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
         <v>263</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>264</v>
-      </c>
-      <c r="J28" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" t="s">
-        <v>266</v>
-      </c>
-      <c r="L28" t="s">
-        <v>267</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>268</v>
-      </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
@@ -3714,54 +4565,58 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>272</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>273</v>
-      </c>
-      <c r="J29" t="s">
-        <v>274</v>
-      </c>
-      <c r="K29" t="s">
-        <v>275</v>
-      </c>
-      <c r="L29" t="s">
-        <v>276</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>277</v>
-      </c>
       <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>273</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
@@ -3777,42 +4632,40 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" t="s">
         <v>279</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>280</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
         <v>281</v>
-      </c>
-      <c r="K30" t="s">
-        <v>282</v>
-      </c>
-      <c r="L30" t="s">
-        <v>283</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s">
-        <v>277</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3822,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y30" t="s">
         <v>284</v>
-      </c>
-      <c r="X30" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="31">
@@ -3844,43 +4697,43 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
         <v>287</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>288</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>289</v>
       </c>
-      <c r="K31" t="s">
-        <v>290</v>
-      </c>
-      <c r="L31" t="s">
-        <v>291</v>
-      </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>293</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3889,13 +4742,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="X31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
@@ -3911,58 +4764,52 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
         <v>297</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>298</v>
-      </c>
-      <c r="J32" t="s">
-        <v>299</v>
-      </c>
-      <c r="K32" t="s">
-        <v>300</v>
-      </c>
-      <c r="L32" t="s">
-        <v>301</v>
-      </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
         <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>3</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
@@ -3978,7 +4825,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3987,47 +4834,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="O33" t="s">
-        <v>248</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
@@ -4043,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4052,49 +4895,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>319</v>
-      </c>
-      <c r="X34" t="s">
-        <v>320</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
@@ -4110,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4119,49 +4952,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s">
-        <v>248</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
@@ -4177,7 +5004,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4186,32 +5013,28 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s">
-        <v>248</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
         <v>5</v>
       </c>
@@ -4220,19 +5043,19 @@
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="X36" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37">
@@ -4248,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4257,53 +5080,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>334</v>
+      </c>
+      <c r="X37" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y37" t="s">
         <v>336</v>
-      </c>
-      <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
-      <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="s">
-        <v>337</v>
-      </c>
-      <c r="X37" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="38">
@@ -4319,7 +5132,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4328,43 +5141,45 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>352</v>
-      </c>
-      <c r="X38" t="s">
-        <v>353</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
@@ -4380,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4389,53 +5204,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>360</v>
-      </c>
-      <c r="X39" t="s">
-        <v>361</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
@@ -4451,7 +5252,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4460,53 +5261,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="X40" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Y40" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
@@ -4522,7 +5313,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4531,53 +5322,45 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>376</v>
-      </c>
-      <c r="X41" t="s">
-        <v>377</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
@@ -4593,7 +5376,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4602,53 +5385,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>385</v>
-      </c>
-      <c r="X42" t="s">
-        <v>386</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
@@ -4664,7 +5433,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4673,38 +5442,34 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4712,14 +5477,10 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>394</v>
-      </c>
-      <c r="X43" t="s">
-        <v>395</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44">
@@ -4735,7 +5496,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4744,41 +5505,37 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
         <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4786,7 +5543,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
@@ -4802,7 +5559,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4811,41 +5568,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="K45" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4853,7 +5604,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46">
@@ -4869,7 +5620,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4878,49 +5629,39 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="K46" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s">
-        <v>402</v>
-      </c>
-      <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>390</v>
+      </c>
+      <c r="X46" t="s">
+        <v>391</v>
+      </c>
       <c r="Y46" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47">
@@ -4936,7 +5677,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4945,49 +5686,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="J47" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="K47" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="L47" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
         <v>4</v>
       </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>398</v>
+      </c>
+      <c r="X47" t="s">
+        <v>399</v>
+      </c>
       <c r="Y47" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
@@ -5003,7 +5744,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5012,35 +5753,31 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="K48" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>293</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
         <v>5</v>
       </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
         <v>5</v>
       </c>
@@ -5054,7 +5791,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49">
@@ -5070,7 +5807,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5079,32 +5816,28 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="J49" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="K49" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
         <v>5</v>
       </c>
@@ -5113,7 +5846,7 @@
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5121,7 +5854,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
@@ -5137,7 +5870,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5146,41 +5879,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="J50" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
         <v>5</v>
       </c>
       <c r="R50" t="n">
         <v>4</v>
       </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5188,7 +5917,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51">
@@ -5204,7 +5933,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5213,49 +5942,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="J51" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
         <v>3</v>
       </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>426</v>
+      </c>
+      <c r="X51" t="s">
+        <v>427</v>
+      </c>
       <c r="Y51" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
@@ -5271,7 +6000,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5280,49 +6009,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="O52" t="s">
-        <v>248</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
         <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>435</v>
+      </c>
+      <c r="X52" t="s">
+        <v>436</v>
+      </c>
       <c r="Y52" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
@@ -5338,7 +6067,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5347,45 +6076,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J53" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>443</v>
+      </c>
+      <c r="X53" t="s">
+        <v>444</v>
+      </c>
       <c r="Y53" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54">
@@ -5401,7 +6128,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5410,45 +6137,49 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="J54" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K54" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>461</v>
-      </c>
-      <c r="O54" t="s">
-        <v>248</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
       <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>451</v>
+      </c>
+      <c r="X54" t="s">
+        <v>452</v>
+      </c>
       <c r="Y54" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55">
@@ -5464,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5473,49 +6204,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J55" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K55" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="L55" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>460</v>
+      </c>
+      <c r="X55" t="s">
+        <v>461</v>
+      </c>
       <c r="Y55" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56">
@@ -5531,7 +6262,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5540,49 +6271,47 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J56" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L56" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
       </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>468</v>
+      </c>
+      <c r="X56" t="s">
+        <v>469</v>
+      </c>
       <c r="Y56" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57">
@@ -5598,56 +6327,56 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>471</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>472</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+      <c r="K57" t="s">
         <v>474</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
         <v>475</v>
       </c>
-      <c r="J57" t="s">
-        <v>476</v>
-      </c>
-      <c r="K57" t="s">
-        <v>477</v>
-      </c>
-      <c r="L57" t="s">
-        <v>478</v>
-      </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>479</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R57" t="s"/>
       <c r="S57" t="n">
         <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>476</v>
+      </c>
+      <c r="X57" t="s">
+        <v>477</v>
+      </c>
       <c r="Y57" t="s">
         <v>478</v>
       </c>
@@ -5665,47 +6394,41 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
         <v>480</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>481</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>482</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>483</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
         <v>484</v>
       </c>
-      <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>479</v>
-      </c>
       <c r="O58" t="s">
-        <v>485</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
         <v>5</v>
       </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
         <v>5</v>
@@ -5713,10 +6436,14 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>485</v>
+      </c>
+      <c r="X58" t="s">
+        <v>486</v>
+      </c>
       <c r="Y58" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59">
@@ -5732,7 +6459,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5741,49 +6468,2788 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J59" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K59" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
       </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
         <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>494</v>
+      </c>
+      <c r="X59" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>497</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>498</v>
+      </c>
+      <c r="J60" t="s">
+        <v>499</v>
+      </c>
+      <c r="K60" t="s">
+        <v>500</v>
+      </c>
+      <c r="L60" t="s">
+        <v>501</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>108</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>502</v>
+      </c>
+      <c r="X60" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>505</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L61" t="s">
+        <v>509</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>510</v>
+      </c>
+      <c r="O61" t="s">
+        <v>108</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>511</v>
+      </c>
+      <c r="X61" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>514</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>515</v>
+      </c>
+      <c r="J62" t="s">
+        <v>516</v>
+      </c>
+      <c r="K62" t="s">
+        <v>517</v>
+      </c>
+      <c r="L62" t="s">
+        <v>518</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>510</v>
+      </c>
+      <c r="O62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>511</v>
+      </c>
+      <c r="X62" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>520</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>521</v>
+      </c>
+      <c r="J63" t="s">
+        <v>522</v>
+      </c>
+      <c r="K63" t="s">
+        <v>523</v>
+      </c>
+      <c r="L63" t="s">
+        <v>524</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>525</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
         <v>3</v>
       </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s">
-        <v>490</v>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>526</v>
+      </c>
+      <c r="X63" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>529</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>530</v>
+      </c>
+      <c r="J64" t="s">
+        <v>531</v>
+      </c>
+      <c r="K64" t="s">
+        <v>532</v>
+      </c>
+      <c r="L64" t="s">
+        <v>533</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>534</v>
+      </c>
+      <c r="O64" t="s">
+        <v>108</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>540</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>541</v>
+      </c>
+      <c r="X65" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>544</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>545</v>
+      </c>
+      <c r="J66" t="s">
+        <v>546</v>
+      </c>
+      <c r="K66" t="s">
+        <v>547</v>
+      </c>
+      <c r="L66" t="s">
+        <v>548</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>540</v>
+      </c>
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>549</v>
+      </c>
+      <c r="X66" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>552</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>553</v>
+      </c>
+      <c r="J67" t="s">
+        <v>554</v>
+      </c>
+      <c r="K67" t="s">
+        <v>555</v>
+      </c>
+      <c r="L67" t="s">
+        <v>556</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>557</v>
+      </c>
+      <c r="O67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>549</v>
+      </c>
+      <c r="X67" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>559</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>560</v>
+      </c>
+      <c r="J68" t="s">
+        <v>561</v>
+      </c>
+      <c r="K68" t="s">
+        <v>562</v>
+      </c>
+      <c r="L68" t="s">
+        <v>563</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>564</v>
+      </c>
+      <c r="X68" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>567</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>568</v>
+      </c>
+      <c r="J69" t="s">
+        <v>569</v>
+      </c>
+      <c r="K69" t="s">
+        <v>570</v>
+      </c>
+      <c r="L69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>572</v>
+      </c>
+      <c r="O69" t="s">
+        <v>108</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>573</v>
+      </c>
+      <c r="X69" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>576</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>577</v>
+      </c>
+      <c r="J70" t="s">
+        <v>578</v>
+      </c>
+      <c r="K70" t="s">
+        <v>579</v>
+      </c>
+      <c r="L70" t="s">
+        <v>580</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>581</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>582</v>
+      </c>
+      <c r="X70" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>585</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>586</v>
+      </c>
+      <c r="J71" t="s">
+        <v>587</v>
+      </c>
+      <c r="K71" t="s">
+        <v>588</v>
+      </c>
+      <c r="L71" t="s">
+        <v>589</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>590</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>591</v>
+      </c>
+      <c r="X71" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>594</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>595</v>
+      </c>
+      <c r="J72" t="s">
+        <v>596</v>
+      </c>
+      <c r="K72" t="s">
+        <v>597</v>
+      </c>
+      <c r="L72" t="s">
+        <v>598</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>599</v>
+      </c>
+      <c r="O72" t="s">
+        <v>81</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>600</v>
+      </c>
+      <c r="X72" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>603</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>604</v>
+      </c>
+      <c r="J73" t="s">
+        <v>605</v>
+      </c>
+      <c r="K73" t="s">
+        <v>606</v>
+      </c>
+      <c r="L73" t="s">
+        <v>607</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>608</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>609</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>610</v>
+      </c>
+      <c r="J74" t="s">
+        <v>611</v>
+      </c>
+      <c r="K74" t="s">
+        <v>612</v>
+      </c>
+      <c r="L74" t="s">
+        <v>613</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>608</v>
+      </c>
+      <c r="O74" t="s">
+        <v>434</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>615</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>616</v>
+      </c>
+      <c r="J75" t="s">
+        <v>617</v>
+      </c>
+      <c r="K75" t="s">
+        <v>618</v>
+      </c>
+      <c r="L75" t="s">
+        <v>619</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>620</v>
+      </c>
+      <c r="O75" t="s">
+        <v>81</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>622</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>623</v>
+      </c>
+      <c r="J76" t="s">
+        <v>624</v>
+      </c>
+      <c r="K76" t="s">
+        <v>625</v>
+      </c>
+      <c r="L76" t="s">
+        <v>626</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>627</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>628</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>629</v>
+      </c>
+      <c r="J77" t="s">
+        <v>630</v>
+      </c>
+      <c r="K77" t="s">
+        <v>631</v>
+      </c>
+      <c r="L77" t="s">
+        <v>632</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>620</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>633</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>634</v>
+      </c>
+      <c r="J78" t="s">
+        <v>635</v>
+      </c>
+      <c r="K78" t="s">
+        <v>636</v>
+      </c>
+      <c r="L78" t="s">
+        <v>637</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>620</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>638</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>639</v>
+      </c>
+      <c r="J79" t="s">
+        <v>640</v>
+      </c>
+      <c r="K79" t="s">
+        <v>641</v>
+      </c>
+      <c r="L79" t="s">
+        <v>642</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>620</v>
+      </c>
+      <c r="O79" t="s">
+        <v>81</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>644</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>645</v>
+      </c>
+      <c r="J80" t="s">
+        <v>646</v>
+      </c>
+      <c r="K80" t="s">
+        <v>647</v>
+      </c>
+      <c r="L80" t="s">
+        <v>648</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>649</v>
+      </c>
+      <c r="O80" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>650</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>651</v>
+      </c>
+      <c r="J81" t="s">
+        <v>652</v>
+      </c>
+      <c r="K81" t="s">
+        <v>653</v>
+      </c>
+      <c r="L81" t="s">
+        <v>654</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>649</v>
+      </c>
+      <c r="O81" t="s">
+        <v>434</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>656</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>657</v>
+      </c>
+      <c r="J82" t="s">
+        <v>658</v>
+      </c>
+      <c r="K82" t="s">
+        <v>659</v>
+      </c>
+      <c r="L82" t="s">
+        <v>660</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>661</v>
+      </c>
+      <c r="O82" t="s">
+        <v>81</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>662</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>663</v>
+      </c>
+      <c r="J83" t="s">
+        <v>664</v>
+      </c>
+      <c r="K83" t="s">
+        <v>665</v>
+      </c>
+      <c r="L83" t="s">
+        <v>666</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>661</v>
+      </c>
+      <c r="O83" t="s">
+        <v>81</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>668</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>669</v>
+      </c>
+      <c r="J84" t="s">
+        <v>670</v>
+      </c>
+      <c r="K84" t="s">
+        <v>671</v>
+      </c>
+      <c r="L84" t="s">
+        <v>672</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>673</v>
+      </c>
+      <c r="O84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>675</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>676</v>
+      </c>
+      <c r="J85" t="s">
+        <v>677</v>
+      </c>
+      <c r="K85" t="s">
+        <v>678</v>
+      </c>
+      <c r="L85" t="s">
+        <v>679</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>680</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>681</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>682</v>
+      </c>
+      <c r="J86" t="s">
+        <v>683</v>
+      </c>
+      <c r="K86" t="s">
+        <v>684</v>
+      </c>
+      <c r="L86" t="s">
+        <v>685</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>680</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>686</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>687</v>
+      </c>
+      <c r="J87" t="s">
+        <v>688</v>
+      </c>
+      <c r="K87" t="s">
+        <v>689</v>
+      </c>
+      <c r="L87" t="s">
+        <v>690</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>691</v>
+      </c>
+      <c r="O87" t="s">
+        <v>108</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>692</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J88" t="s">
+        <v>694</v>
+      </c>
+      <c r="K88" t="s">
+        <v>695</v>
+      </c>
+      <c r="L88" t="s">
+        <v>696</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>697</v>
+      </c>
+      <c r="O88" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>699</v>
+      </c>
+      <c r="J89" t="s">
+        <v>700</v>
+      </c>
+      <c r="K89" t="s">
+        <v>701</v>
+      </c>
+      <c r="L89" t="s">
+        <v>702</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>697</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>703</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>704</v>
+      </c>
+      <c r="J90" t="s">
+        <v>705</v>
+      </c>
+      <c r="K90" t="s">
+        <v>706</v>
+      </c>
+      <c r="L90" t="s">
+        <v>707</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>708</v>
+      </c>
+      <c r="O90" t="s">
+        <v>81</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>709</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>710</v>
+      </c>
+      <c r="J91" t="s">
+        <v>711</v>
+      </c>
+      <c r="K91" t="s">
+        <v>712</v>
+      </c>
+      <c r="L91" t="s">
+        <v>713</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>714</v>
+      </c>
+      <c r="O91" t="s">
+        <v>108</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>716</v>
+      </c>
+      <c r="J92" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" t="s">
+        <v>718</v>
+      </c>
+      <c r="L92" t="s">
+        <v>719</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>720</v>
+      </c>
+      <c r="O92" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>721</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>722</v>
+      </c>
+      <c r="J93" t="s">
+        <v>723</v>
+      </c>
+      <c r="K93" t="s">
+        <v>724</v>
+      </c>
+      <c r="L93" t="s">
+        <v>725</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>727</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>728</v>
+      </c>
+      <c r="J94" t="s">
+        <v>729</v>
+      </c>
+      <c r="K94" t="s">
+        <v>730</v>
+      </c>
+      <c r="L94" t="s">
+        <v>731</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>714</v>
+      </c>
+      <c r="O94" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>732</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>733</v>
+      </c>
+      <c r="J95" t="s">
+        <v>734</v>
+      </c>
+      <c r="K95" t="s">
+        <v>735</v>
+      </c>
+      <c r="L95" t="s">
+        <v>736</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>708</v>
+      </c>
+      <c r="O95" t="s">
+        <v>81</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>738</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>739</v>
+      </c>
+      <c r="J96" t="s">
+        <v>740</v>
+      </c>
+      <c r="K96" t="s">
+        <v>741</v>
+      </c>
+      <c r="L96" t="s">
+        <v>742</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>743</v>
+      </c>
+      <c r="O96" t="s">
+        <v>81</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>744</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>745</v>
+      </c>
+      <c r="J97" t="s">
+        <v>746</v>
+      </c>
+      <c r="K97" t="s">
+        <v>747</v>
+      </c>
+      <c r="L97" t="s">
+        <v>748</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>743</v>
+      </c>
+      <c r="O97" t="s">
+        <v>59</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>749</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>750</v>
+      </c>
+      <c r="J98" t="s">
+        <v>751</v>
+      </c>
+      <c r="K98" t="s">
+        <v>752</v>
+      </c>
+      <c r="L98" t="s">
+        <v>753</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>743</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>755</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>756</v>
+      </c>
+      <c r="J99" t="s">
+        <v>757</v>
+      </c>
+      <c r="K99" t="s">
+        <v>758</v>
+      </c>
+      <c r="L99" t="s">
+        <v>759</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>760</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>58148</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>761</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>762</v>
+      </c>
+      <c r="J100" t="s">
+        <v>763</v>
+      </c>
+      <c r="K100" t="s">
+        <v>764</v>
+      </c>
+      <c r="L100" t="s">
+        <v>765</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>766</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
